--- a/Chen/Spending_data.xlsx
+++ b/Chen/Spending_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salvi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IS_CW\SVM_Collab\Chen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A35F33-04D0-4359-B28C-82EAB2712984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF434B9-8F3A-4A36-99B0-3F4891428291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{88EC465C-8B1A-4D14-8D59-202C18660018}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{88EC465C-8B1A-4D14-8D59-202C18660018}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -275,11 +275,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,17 +614,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A557E7EF-899B-4FD0-92C0-4E9091D364FE}">
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="52" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.1328125" customWidth="1"/>
-    <col min="2" max="2" width="10.19921875" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.86328125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -640,11 +638,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>244.2</v>
       </c>
       <c r="C2" s="1">
@@ -654,11 +652,11 @@
         <v>45802</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>238.5</v>
       </c>
       <c r="C3" s="1">
@@ -668,11 +666,11 @@
         <v>45802</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>214.5</v>
       </c>
       <c r="C4" s="1">
@@ -682,11 +680,11 @@
         <v>45802</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>176.2</v>
       </c>
       <c r="C5" s="1">
@@ -696,11 +694,11 @@
         <v>45802</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>148.85</v>
       </c>
       <c r="C6" s="1">
@@ -710,11 +708,11 @@
         <v>45802</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>144.4</v>
       </c>
       <c r="C7" s="1">
@@ -724,11 +722,11 @@
         <v>45802</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>126.49</v>
       </c>
       <c r="C8" s="1">
@@ -738,11 +736,11 @@
         <v>45802</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>117.15</v>
       </c>
       <c r="C9" s="1">
@@ -752,11 +750,11 @@
         <v>45802</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>108.9</v>
       </c>
       <c r="C10" s="1">
@@ -766,11 +764,11 @@
         <v>45802</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>105.5</v>
       </c>
       <c r="C11" s="1">
@@ -780,11 +778,11 @@
         <v>45802</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>104.37</v>
       </c>
       <c r="C12" s="1">
@@ -794,11 +792,11 @@
         <v>45802</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>97.9</v>
       </c>
       <c r="C13" s="1">
@@ -808,11 +806,11 @@
         <v>45802</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>91.55</v>
       </c>
       <c r="C14" s="1">
@@ -822,11 +820,11 @@
         <v>45802</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>86.05</v>
       </c>
       <c r="C15" s="1">
@@ -836,11 +834,11 @@
         <v>45802</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>77.7</v>
       </c>
       <c r="C16" s="1">
@@ -850,11 +848,11 @@
         <v>45802</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17">
         <v>74.400000000000006</v>
       </c>
       <c r="C17" s="1">
@@ -864,11 +862,11 @@
         <v>45802</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18">
         <v>68.2</v>
       </c>
       <c r="C18" s="1">
@@ -878,11 +876,11 @@
         <v>45802</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19">
         <v>50.2</v>
       </c>
       <c r="C19" s="1">
@@ -892,11 +890,11 @@
         <v>45802</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20">
         <v>42</v>
       </c>
       <c r="C20" s="1">
@@ -906,11 +904,11 @@
         <v>45802</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21">
         <v>25</v>
       </c>
       <c r="C21" s="1">
@@ -920,11 +918,11 @@
         <v>45802</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22">
         <v>464.1</v>
       </c>
       <c r="C22" s="1">
@@ -934,11 +932,11 @@
         <v>45431</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23">
         <v>272.10000000000002</v>
       </c>
       <c r="C23" s="1">
@@ -948,11 +946,11 @@
         <v>45431</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24">
         <v>259.60000000000002</v>
       </c>
       <c r="C24" s="1">
@@ -962,11 +960,11 @@
         <v>45431</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25">
         <v>235.1</v>
       </c>
       <c r="C25" s="1">
@@ -976,11 +974,11 @@
         <v>45431</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26">
         <v>202.3</v>
       </c>
       <c r="C26" s="1">
@@ -990,11 +988,11 @@
         <v>45431</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27">
         <v>172</v>
       </c>
       <c r="C27" s="1">
@@ -1004,11 +1002,11 @@
         <v>45431</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28">
         <v>148.1</v>
       </c>
       <c r="C28" s="1">
@@ -1018,11 +1016,11 @@
         <v>45431</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29">
         <v>144.56</v>
       </c>
       <c r="C29" s="1">
@@ -1032,11 +1030,11 @@
         <v>45431</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30">
         <v>127.7</v>
       </c>
       <c r="C30" s="1">
@@ -1046,11 +1044,11 @@
         <v>45431</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31">
         <v>127.29</v>
       </c>
       <c r="C31" s="1">
@@ -1060,11 +1058,11 @@
         <v>45431</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32">
         <v>111.5</v>
       </c>
       <c r="C32" s="1">
@@ -1074,11 +1072,11 @@
         <v>45431</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33">
         <v>111.05</v>
       </c>
       <c r="C33" s="1">
@@ -1088,11 +1086,11 @@
         <v>45431</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34">
         <v>109.5</v>
       </c>
       <c r="C34" s="1">
@@ -1102,11 +1100,11 @@
         <v>45431</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35">
         <v>94</v>
       </c>
       <c r="C35" s="1">
@@ -1116,11 +1114,11 @@
         <v>45431</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36">
         <v>73.17</v>
       </c>
       <c r="C36" s="1">
@@ -1130,11 +1128,11 @@
         <v>45431</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37">
         <v>72.349999999999994</v>
       </c>
       <c r="C37" s="1">
@@ -1144,11 +1142,11 @@
         <v>45431</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38">
         <v>67.8</v>
       </c>
       <c r="C38" s="1">
@@ -1158,11 +1156,11 @@
         <v>45431</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39">
         <v>66.95</v>
       </c>
       <c r="C39" s="1">
@@ -1172,11 +1170,11 @@
         <v>45431</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40">
         <v>40.5</v>
       </c>
       <c r="C40" s="1">
@@ -1186,11 +1184,11 @@
         <v>45431</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41">
         <v>25.9</v>
       </c>
       <c r="C41" s="1">
@@ -1200,291 +1198,291 @@
         <v>45431</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42">
         <v>630.25</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>44779</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="1">
         <v>45074</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43">
         <v>243.28</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <v>44779</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="1">
         <v>45074</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44">
         <v>198.35</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>44779</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="1">
         <v>45074</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45">
         <v>196.6</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="1">
         <v>44779</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="1">
         <v>45074</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46">
         <v>186.4</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="1">
         <v>44779</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="1">
         <v>45074</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47">
         <v>185.35</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="1">
         <v>44779</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="1">
         <v>45074</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48">
         <v>179.9</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="1">
         <v>44779</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="1">
         <v>45074</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49">
         <v>179.51</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="1">
         <v>44779</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="1">
         <v>45074</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50">
         <v>163.89</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="1">
         <v>44779</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="1">
         <v>45074</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51">
         <v>155</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="1">
         <v>44779</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="1">
         <v>45074</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>29</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52">
         <v>153.11000000000001</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="1">
         <v>44779</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="1">
         <v>45074</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>20</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53">
         <v>145.80000000000001</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="1">
         <v>44779</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="1">
         <v>45074</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54">
         <v>100.14</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="1">
         <v>44779</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="1">
         <v>45074</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>26</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55">
         <v>83.1</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="1">
         <v>44779</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="1">
         <v>45074</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>21</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56">
         <v>83.07</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="1">
         <v>44779</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="1">
         <v>45074</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57">
         <v>76.099999999999994</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="1">
         <v>44779</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="1">
         <v>45074</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58">
         <v>55.7</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="1">
         <v>44779</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="1">
         <v>45074</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>15</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59">
         <v>49.25</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="1">
         <v>44779</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="1">
         <v>45074</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>38</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60">
         <v>49</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="1">
         <v>44779</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="1">
         <v>45074</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61">
         <v>46.6</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="1">
         <v>44779</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="1">
         <v>45074</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62">
         <v>167.4</v>
       </c>
       <c r="C62" s="1">
@@ -1494,11 +1492,11 @@
         <v>44703</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63">
         <v>142</v>
       </c>
       <c r="C63" s="1">
@@ -1508,11 +1506,11 @@
         <v>44703</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64">
         <v>138.9</v>
       </c>
       <c r="C64" s="1">
@@ -1522,11 +1520,11 @@
         <v>44703</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65">
         <v>130.5</v>
       </c>
       <c r="C65" s="1">
@@ -1536,11 +1534,11 @@
         <v>44703</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66">
         <v>129.80000000000001</v>
       </c>
       <c r="C66" s="1">
@@ -1550,11 +1548,11 @@
         <v>44703</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67">
         <v>118</v>
       </c>
       <c r="C67" s="1">
@@ -1564,11 +1562,11 @@
         <v>44703</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68">
         <v>95.9</v>
       </c>
       <c r="C68" s="1">
@@ -1578,11 +1576,11 @@
         <v>44703</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69">
         <v>92</v>
       </c>
       <c r="C69" s="1">
@@ -1592,11 +1590,11 @@
         <v>44703</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70">
         <v>85.62</v>
       </c>
       <c r="C70" s="1">
@@ -1606,11 +1604,11 @@
         <v>44703</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71">
         <v>75</v>
       </c>
       <c r="C71" s="1">
@@ -1620,11 +1618,11 @@
         <v>44703</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72">
         <v>74.5</v>
       </c>
       <c r="C72" s="1">
@@ -1634,11 +1632,11 @@
         <v>44703</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73">
         <v>67.599999999999994</v>
       </c>
       <c r="C73" s="1">
@@ -1648,11 +1646,11 @@
         <v>44703</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74">
         <v>63.55</v>
       </c>
       <c r="C74" s="1">
@@ -1662,11 +1660,11 @@
         <v>44703</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75">
         <v>63.4</v>
       </c>
       <c r="C75" s="1">
@@ -1676,11 +1674,11 @@
         <v>44703</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76">
         <v>59.3</v>
       </c>
       <c r="C76" s="1">
@@ -1690,11 +1688,11 @@
         <v>44703</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77">
         <v>49.4</v>
       </c>
       <c r="C77" s="1">
@@ -1704,11 +1702,11 @@
         <v>44703</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78">
         <v>43.5</v>
       </c>
       <c r="C78" s="1">
@@ -1718,11 +1716,11 @@
         <v>44703</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79">
         <v>39.5</v>
       </c>
       <c r="C79" s="1">
@@ -1732,11 +1730,11 @@
         <v>44703</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80">
         <v>38.200000000000003</v>
       </c>
       <c r="C80" s="1">
@@ -1746,11 +1744,11 @@
         <v>44703</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81">
         <v>37.6</v>
       </c>
       <c r="C81" s="1">
@@ -1760,11 +1758,11 @@
         <v>44703</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82">
         <v>247.2</v>
       </c>
       <c r="C82" s="1">
@@ -1774,11 +1772,11 @@
         <v>44339</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83">
         <v>173.4</v>
       </c>
       <c r="C83" s="1">
@@ -1788,11 +1786,11 @@
         <v>44339</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>39</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84">
         <v>127.8</v>
       </c>
       <c r="C84" s="1">
@@ -1802,11 +1800,11 @@
         <v>44339</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>17</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85">
         <v>110.5</v>
       </c>
       <c r="C85" s="1">
@@ -1816,11 +1814,11 @@
         <v>44339</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>5</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86">
         <v>101.35</v>
       </c>
       <c r="C86" s="1">
@@ -1830,11 +1828,11 @@
         <v>44339</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>10</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87">
         <v>87.59</v>
       </c>
       <c r="C87" s="1">
@@ -1844,11 +1842,11 @@
         <v>44339</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>4</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88">
         <v>86</v>
       </c>
       <c r="C88" s="1">
@@ -1858,11 +1856,11 @@
         <v>44339</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>20</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89">
         <v>84.8</v>
       </c>
       <c r="C89" s="1">
@@ -1872,11 +1870,11 @@
         <v>44339</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90">
         <v>83.95</v>
       </c>
       <c r="C90" s="1">
@@ -1886,11 +1884,11 @@
         <v>44339</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>21</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91">
         <v>74.37</v>
       </c>
       <c r="C91" s="1">
@@ -1900,11 +1898,11 @@
         <v>44339</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>12</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92">
         <v>62.7</v>
       </c>
       <c r="C92" s="1">
@@ -1914,11 +1912,11 @@
         <v>44339</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>38</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93">
         <v>59.4</v>
       </c>
       <c r="C93" s="1">
@@ -1928,11 +1926,11 @@
         <v>44339</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>22</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94">
         <v>54.7</v>
       </c>
       <c r="C94" s="1">
@@ -1942,11 +1940,11 @@
         <v>44339</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>27</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95">
         <v>50.1</v>
       </c>
       <c r="C95" s="1">
@@ -1956,11 +1954,11 @@
         <v>44339</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>23</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96">
         <v>42.14</v>
       </c>
       <c r="C96" s="1">
@@ -1970,11 +1968,11 @@
         <v>44339</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>30</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97">
         <v>38.75</v>
       </c>
       <c r="C97" s="1">
@@ -1984,11 +1982,11 @@
         <v>44339</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>29</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98">
         <v>37.299999999999997</v>
       </c>
       <c r="C98" s="1">
@@ -1998,11 +1996,11 @@
         <v>44339</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>14</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99">
         <v>37.25</v>
       </c>
       <c r="C99" s="1">
@@ -2012,11 +2010,11 @@
         <v>44339</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>6</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100">
         <v>22.4</v>
       </c>
       <c r="C100" s="1">
@@ -2026,11 +2024,11 @@
         <v>44339</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>24</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101">
         <v>1.1000000000000001</v>
       </c>
       <c r="C101" s="1">
@@ -2040,11 +2038,11 @@
         <v>44339</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>19</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102">
         <v>247.2</v>
       </c>
       <c r="C102" s="1">
@@ -2054,11 +2052,11 @@
         <v>44038</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>18</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103">
         <v>173.4</v>
       </c>
       <c r="C103" s="1">
@@ -2068,11 +2066,11 @@
         <v>44038</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>39</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104">
         <v>127.8</v>
       </c>
       <c r="C104" s="1">
@@ -2082,11 +2080,11 @@
         <v>44038</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>17</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105">
         <v>110.5</v>
       </c>
       <c r="C105" s="1">
@@ -2096,11 +2094,11 @@
         <v>44038</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>5</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106">
         <v>101.35</v>
       </c>
       <c r="C106" s="1">
@@ -2110,11 +2108,11 @@
         <v>44038</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>10</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107">
         <v>87.59</v>
       </c>
       <c r="C107" s="1">
@@ -2124,11 +2122,11 @@
         <v>44038</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>4</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108">
         <v>86</v>
       </c>
       <c r="C108" s="1">
@@ -2138,11 +2136,11 @@
         <v>44038</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>20</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109">
         <v>84.8</v>
       </c>
       <c r="C109" s="1">
@@ -2152,11 +2150,11 @@
         <v>44038</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>25</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110">
         <v>83.95</v>
       </c>
       <c r="C110" s="1">
@@ -2166,11 +2164,11 @@
         <v>44038</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>21</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111">
         <v>74.37</v>
       </c>
       <c r="C111" s="1">
@@ -2180,11 +2178,11 @@
         <v>44038</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>12</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112">
         <v>62.7</v>
       </c>
       <c r="C112" s="1">
@@ -2194,11 +2192,11 @@
         <v>44038</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>38</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113">
         <v>59.4</v>
       </c>
       <c r="C113" s="1">
@@ -2208,11 +2206,11 @@
         <v>44038</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>22</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114">
         <v>54.7</v>
       </c>
       <c r="C114" s="1">
@@ -2222,11 +2220,11 @@
         <v>44038</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>27</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115">
         <v>50.1</v>
       </c>
       <c r="C115" s="1">
@@ -2236,11 +2234,11 @@
         <v>44038</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>23</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116">
         <v>42.14</v>
       </c>
       <c r="C116" s="1">
@@ -2250,11 +2248,11 @@
         <v>44038</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>30</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117">
         <v>38.75</v>
       </c>
       <c r="C117" s="1">
@@ -2264,11 +2262,11 @@
         <v>44038</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>29</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118">
         <v>37.299999999999997</v>
       </c>
       <c r="C118" s="1">
@@ -2278,11 +2276,11 @@
         <v>44038</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>14</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119">
         <v>37.25</v>
       </c>
       <c r="C119" s="1">
@@ -2292,11 +2290,11 @@
         <v>44038</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>6</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120">
         <v>22.4</v>
       </c>
       <c r="C120" s="1">
@@ -2306,11 +2304,11 @@
         <v>44038</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>24</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121">
         <v>1.1000000000000001</v>
       </c>
       <c r="C121" s="1">
@@ -2320,11 +2318,11 @@
         <v>44038</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>19</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122">
         <v>208.8</v>
       </c>
       <c r="C122" s="1">
@@ -2334,11 +2332,11 @@
         <v>43597</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>20</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123">
         <v>182.2</v>
       </c>
       <c r="C123" s="1">
@@ -2348,11 +2346,11 @@
         <v>43597</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>10</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124">
         <v>117.5</v>
       </c>
       <c r="C124" s="1">
@@ -2362,11 +2360,11 @@
         <v>43597</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>14</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125">
         <v>116.5</v>
       </c>
       <c r="C125" s="1">
@@ -2376,11 +2374,11 @@
         <v>43597</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>38</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126">
         <v>114.6</v>
       </c>
       <c r="C126" s="1">
@@ -2390,11 +2388,11 @@
         <v>43597</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>22</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127">
         <v>100.9</v>
       </c>
       <c r="C127" s="1">
@@ -2404,11 +2402,11 @@
         <v>43597</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>21</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128">
         <v>99.8</v>
       </c>
       <c r="C128" s="1">
@@ -2418,11 +2416,11 @@
         <v>43597</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>26</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129">
         <v>91.6</v>
       </c>
       <c r="C129" s="1">
@@ -2432,11 +2430,11 @@
         <v>43597</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>27</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130">
         <v>90.62</v>
       </c>
       <c r="C130" s="1">
@@ -2446,11 +2444,11 @@
         <v>43597</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>25</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131">
         <v>82.7</v>
       </c>
       <c r="C131" s="1">
@@ -2460,11 +2458,11 @@
         <v>43597</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>4</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132">
         <v>80.150000000000006</v>
       </c>
       <c r="C132" s="1">
@@ -2474,11 +2472,11 @@
         <v>43597</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>18</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133">
         <v>78.59</v>
       </c>
       <c r="C133" s="1">
@@ -2488,11 +2486,11 @@
         <v>43597</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>29</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134">
         <v>62.25</v>
       </c>
       <c r="C134" s="1">
@@ -2502,11 +2500,11 @@
         <v>43597</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>30</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135">
         <v>59.75</v>
       </c>
       <c r="C135" s="1">
@@ -2516,11 +2514,11 @@
         <v>43597</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>53</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136">
         <v>51.2</v>
       </c>
       <c r="C136" s="1">
@@ -2530,11 +2528,11 @@
         <v>43597</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>35</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137">
         <v>50.7</v>
       </c>
       <c r="C137" s="1">
@@ -2544,11 +2542,11 @@
         <v>43597</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>24</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138">
         <v>33</v>
       </c>
       <c r="C138" s="1">
@@ -2558,11 +2556,11 @@
         <v>43597</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>34</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139">
         <v>30.1</v>
       </c>
       <c r="C139" s="1">
@@ -2572,11 +2570,11 @@
         <v>43597</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>6</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140">
         <v>11.85</v>
       </c>
       <c r="C140" s="1">
@@ -2586,7 +2584,7 @@
         <v>43597</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>17</v>
       </c>
@@ -2600,11 +2598,11 @@
         <v>43597</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>18</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142">
         <v>317.5</v>
       </c>
       <c r="C142" s="1">
@@ -2614,11 +2612,11 @@
         <v>43233</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>19</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143">
         <v>260.5</v>
       </c>
       <c r="C143" s="1">
@@ -2628,11 +2626,11 @@
         <v>43233</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>21</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144">
         <v>203.2</v>
       </c>
       <c r="C144" s="1">
@@ -2642,11 +2640,11 @@
         <v>43233</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>25</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145">
         <v>198.4</v>
       </c>
       <c r="C145" s="1">
@@ -2656,11 +2654,11 @@
         <v>43233</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>20</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146">
         <v>173.65</v>
       </c>
       <c r="C146" s="1">
@@ -2670,11 +2668,11 @@
         <v>43233</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>4</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147">
         <v>152.85</v>
       </c>
       <c r="C147" s="1">
@@ -2684,11 +2682,11 @@
         <v>43233</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>17</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148">
         <v>121</v>
       </c>
       <c r="C148" s="1">
@@ -2698,11 +2696,11 @@
         <v>43233</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>38</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149">
         <v>83.85</v>
       </c>
       <c r="C149" s="1">
@@ -2712,11 +2710,11 @@
         <v>43233</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>34</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150">
         <v>73.400000000000006</v>
       </c>
       <c r="C150" s="1">
@@ -2726,11 +2724,11 @@
         <v>43233</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>33</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151">
         <v>73.39</v>
       </c>
       <c r="C151" s="1">
@@ -2740,11 +2738,11 @@
         <v>43233</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>27</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152">
         <v>70</v>
       </c>
       <c r="C152" s="1">
@@ -2754,11 +2752,11 @@
         <v>43233</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>29</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153">
         <v>61.25</v>
       </c>
       <c r="C153" s="1">
@@ -2768,11 +2766,11 @@
         <v>43233</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>31</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154">
         <v>57.7</v>
       </c>
       <c r="C154" s="1">
@@ -2782,11 +2780,11 @@
         <v>43233</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>22</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155">
         <v>56.8</v>
       </c>
       <c r="C155" s="1">
@@ -2796,11 +2794,11 @@
         <v>43233</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>35</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156">
         <v>56.75</v>
       </c>
       <c r="C156" s="1">
@@ -2810,11 +2808,11 @@
         <v>43233</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>6</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B157">
         <v>55.95</v>
       </c>
       <c r="C157" s="1">
@@ -2824,11 +2822,11 @@
         <v>43233</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>23</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158">
         <v>53.5</v>
       </c>
       <c r="C158" s="1">
@@ -2838,11 +2836,11 @@
         <v>43233</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>30</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159">
         <v>46.5</v>
       </c>
       <c r="C159" s="1">
@@ -2852,11 +2850,11 @@
         <v>43233</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>24</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160">
         <v>35.74</v>
       </c>
       <c r="C160" s="1">
@@ -2866,11 +2864,11 @@
         <v>43233</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>26</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161">
         <v>34.299999999999997</v>
       </c>
       <c r="C161" s="1">
@@ -2880,11 +2878,11 @@
         <v>43233</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>18</v>
       </c>
-      <c r="B162" s="3">
+      <c r="B162">
         <v>216.25</v>
       </c>
       <c r="C162" s="1">
@@ -2894,11 +2892,11 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>25</v>
       </c>
-      <c r="B163" s="3">
+      <c r="B163">
         <v>185</v>
       </c>
       <c r="C163" s="1">
@@ -2908,11 +2906,11 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>19</v>
       </c>
-      <c r="B164" s="3">
+      <c r="B164">
         <v>132.80000000000001</v>
       </c>
       <c r="C164" s="1">
@@ -2922,11 +2920,11 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>4</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B165">
         <v>113</v>
       </c>
       <c r="C165" s="1">
@@ -2936,11 +2934,11 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>6</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B166">
         <v>101.2</v>
       </c>
       <c r="C166" s="1">
@@ -2950,11 +2948,11 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>38</v>
       </c>
-      <c r="B167" s="3">
+      <c r="B167">
         <v>92.1</v>
       </c>
       <c r="C167" s="1">
@@ -2964,11 +2962,11 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>21</v>
       </c>
-      <c r="B168" s="3">
+      <c r="B168">
         <v>86</v>
       </c>
       <c r="C168" s="1">
@@ -2978,11 +2976,11 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>17</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B169">
         <v>83.5</v>
       </c>
       <c r="C169" s="1">
@@ -2992,11 +2990,11 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>22</v>
       </c>
-      <c r="B170" s="3">
+      <c r="B170">
         <v>83.5</v>
       </c>
       <c r="C170" s="1">
@@ -3006,11 +3004,11 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>20</v>
       </c>
-      <c r="B171" s="3">
+      <c r="B171">
         <v>79.900000000000006</v>
       </c>
       <c r="C171" s="1">
@@ -3020,11 +3018,11 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>34</v>
       </c>
-      <c r="B172" s="3">
+      <c r="B172">
         <v>70.45</v>
       </c>
       <c r="C172" s="1">
@@ -3034,11 +3032,11 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>29</v>
       </c>
-      <c r="B173" s="3">
+      <c r="B173">
         <v>68.900000000000006</v>
       </c>
       <c r="C173" s="1">
@@ -3048,11 +3046,11 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>33</v>
       </c>
-      <c r="B174" s="3">
+      <c r="B174">
         <v>58.1</v>
       </c>
       <c r="C174" s="1">
@@ -3062,11 +3060,11 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>52</v>
       </c>
-      <c r="B175" s="3">
+      <c r="B175">
         <v>47.95</v>
       </c>
       <c r="C175" s="1">
@@ -3076,11 +3074,11 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>24</v>
       </c>
-      <c r="B176" s="3">
+      <c r="B176">
         <v>45.6</v>
       </c>
       <c r="C176" s="1">
@@ -3090,11 +3088,11 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>31</v>
       </c>
-      <c r="B177" s="3">
+      <c r="B177">
         <v>42.17</v>
       </c>
       <c r="C177" s="1">
@@ -3104,11 +3102,11 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>32</v>
       </c>
-      <c r="B178" s="3">
+      <c r="B178">
         <v>41.9</v>
       </c>
       <c r="C178" s="1">
@@ -3118,11 +3116,11 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>26</v>
       </c>
-      <c r="B179" s="3">
+      <c r="B179">
         <v>40.69</v>
       </c>
       <c r="C179" s="1">
@@ -3132,11 +3130,11 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>67</v>
       </c>
-      <c r="B180" s="3">
+      <c r="B180">
         <v>40</v>
       </c>
       <c r="C180" s="1">
@@ -3146,11 +3144,11 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>23</v>
       </c>
-      <c r="B181" s="3">
+      <c r="B181">
         <v>37.9</v>
       </c>
       <c r="C181" s="1">
@@ -3160,11 +3158,11 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>18</v>
       </c>
-      <c r="B182" s="3">
+      <c r="B182">
         <v>208.47</v>
       </c>
       <c r="C182" s="1">
@@ -3174,11 +3172,11 @@
         <v>42507</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>25</v>
       </c>
-      <c r="B183" s="3">
+      <c r="B183">
         <v>156</v>
       </c>
       <c r="C183" s="1">
@@ -3188,11 +3186,11 @@
         <v>42507</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>20</v>
       </c>
-      <c r="B184" s="3">
+      <c r="B184">
         <v>126.5</v>
       </c>
       <c r="C184" s="1">
@@ -3202,11 +3200,11 @@
         <v>42507</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>30</v>
       </c>
-      <c r="B185" s="3">
+      <c r="B185">
         <v>107.91</v>
       </c>
       <c r="C185" s="1">
@@ -3216,11 +3214,11 @@
         <v>42507</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>19</v>
       </c>
-      <c r="B186" s="3">
+      <c r="B186">
         <v>96.5</v>
       </c>
       <c r="C186" s="1">
@@ -3230,11 +3228,11 @@
         <v>42507</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="3">
+      <c r="B187">
         <v>82.8</v>
       </c>
       <c r="C187" s="1">
@@ -3244,11 +3242,11 @@
         <v>42507</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>17</v>
       </c>
-      <c r="B188" s="3">
+      <c r="B188">
         <v>71</v>
       </c>
       <c r="C188" s="1">
@@ -3258,11 +3256,11 @@
         <v>42507</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>5</v>
       </c>
-      <c r="B189" s="3">
+      <c r="B189">
         <v>66.55</v>
       </c>
       <c r="C189" s="1">
@@ -3272,11 +3270,11 @@
         <v>42507</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>32</v>
       </c>
-      <c r="B190" s="3">
+      <c r="B190">
         <v>66.05</v>
       </c>
       <c r="C190" s="1">
@@ -3286,11 +3284,11 @@
         <v>42507</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>29</v>
       </c>
-      <c r="B191" s="3">
+      <c r="B191">
         <v>60.1</v>
       </c>
       <c r="C191" s="1">
@@ -3300,11 +3298,11 @@
         <v>42507</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>26</v>
       </c>
-      <c r="B192" s="3">
+      <c r="B192">
         <v>55.11</v>
       </c>
       <c r="C192" s="1">
@@ -3314,11 +3312,11 @@
         <v>42507</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>31</v>
       </c>
-      <c r="B193" s="3">
+      <c r="B193">
         <v>53.65</v>
       </c>
       <c r="C193" s="1">
@@ -3328,11 +3326,11 @@
         <v>42507</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>22</v>
       </c>
-      <c r="B194" s="3">
+      <c r="B194">
         <v>52.7</v>
       </c>
       <c r="C194" s="1">
@@ -3342,11 +3340,11 @@
         <v>42507</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>37</v>
       </c>
-      <c r="B195" s="3">
+      <c r="B195">
         <v>50.5</v>
       </c>
       <c r="C195" s="1">
@@ -3356,11 +3354,11 @@
         <v>42507</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>38</v>
       </c>
-      <c r="B196" s="3">
+      <c r="B196">
         <v>49.9</v>
       </c>
       <c r="C196" s="1">
@@ -3370,11 +3368,11 @@
         <v>42507</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>21</v>
       </c>
-      <c r="B197" s="3">
+      <c r="B197">
         <v>48.2</v>
       </c>
       <c r="C197" s="1">
@@ -3384,11 +3382,11 @@
         <v>42507</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>23</v>
       </c>
-      <c r="B198" s="3">
+      <c r="B198">
         <v>42.9</v>
       </c>
       <c r="C198" s="1">
@@ -3398,11 +3396,11 @@
         <v>42507</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>6</v>
       </c>
-      <c r="B199" s="3">
+      <c r="B199">
         <v>28.8</v>
       </c>
       <c r="C199" s="1">
@@ -3412,11 +3410,11 @@
         <v>42507</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>4</v>
       </c>
-      <c r="B200" s="3">
+      <c r="B200">
         <v>26.5</v>
       </c>
       <c r="C200" s="1">
@@ -3426,11 +3424,11 @@
         <v>42507</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>33</v>
       </c>
-      <c r="B201" s="3">
+      <c r="B201">
         <v>21.81</v>
       </c>
       <c r="C201" s="1">
@@ -3440,11 +3438,11 @@
         <v>42507</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>25</v>
       </c>
-      <c r="B202" s="3">
+      <c r="B202">
         <v>195.35</v>
       </c>
       <c r="C202" s="1">
@@ -3454,11 +3452,11 @@
         <v>42148</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>20</v>
       </c>
-      <c r="B203" s="3">
+      <c r="B203">
         <v>151.43</v>
       </c>
       <c r="C203" s="1">
@@ -3468,11 +3466,11 @@
         <v>42148</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>19</v>
       </c>
-      <c r="B204" s="3">
+      <c r="B204">
         <v>137.69999999999999</v>
       </c>
       <c r="C204" s="1">
@@ -3482,11 +3480,11 @@
         <v>42148</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>4</v>
       </c>
-      <c r="B205" s="3">
+      <c r="B205">
         <v>118.98</v>
       </c>
       <c r="C205" s="1">
@@ -3496,11 +3494,11 @@
         <v>42148</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>18</v>
       </c>
-      <c r="B206" s="3">
+      <c r="B206">
         <v>102.8</v>
       </c>
       <c r="C206" s="1">
@@ -3510,11 +3508,11 @@
         <v>42148</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>29</v>
       </c>
-      <c r="B207" s="3">
+      <c r="B207">
         <v>96</v>
       </c>
       <c r="C207" s="1">
@@ -3524,11 +3522,11 @@
         <v>42148</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>17</v>
       </c>
-      <c r="B208" s="3">
+      <c r="B208">
         <v>48.48</v>
       </c>
       <c r="C208" s="1">
@@ -3538,11 +3536,11 @@
         <v>42148</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>13</v>
       </c>
-      <c r="B209" s="3">
+      <c r="B209">
         <v>48.22</v>
       </c>
       <c r="C209" s="1">
@@ -3552,11 +3550,11 @@
         <v>42148</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>30</v>
       </c>
-      <c r="B210" s="3">
+      <c r="B210">
         <v>45.02</v>
       </c>
       <c r="C210" s="1">
@@ -3566,11 +3564,11 @@
         <v>42148</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>36</v>
       </c>
-      <c r="B211" s="3">
+      <c r="B211">
         <v>43.54</v>
       </c>
       <c r="C211" s="1">
@@ -3580,11 +3578,11 @@
         <v>42148</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>33</v>
       </c>
-      <c r="B212" s="3">
+      <c r="B212">
         <v>41.53</v>
       </c>
       <c r="C212" s="1">
@@ -3594,11 +3592,11 @@
         <v>42148</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>21</v>
       </c>
-      <c r="B213" s="3">
+      <c r="B213">
         <v>40.159999999999997</v>
       </c>
       <c r="C213" s="1">
@@ -3608,11 +3606,11 @@
         <v>42148</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>22</v>
       </c>
-      <c r="B214" s="3">
+      <c r="B214">
         <v>35.15</v>
       </c>
       <c r="C214" s="1">
@@ -3622,11 +3620,11 @@
         <v>42148</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>6</v>
       </c>
-      <c r="B215" s="3">
+      <c r="B215">
         <v>31.22</v>
       </c>
       <c r="C215" s="1">
@@ -3636,11 +3634,11 @@
         <v>42148</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>23</v>
       </c>
-      <c r="B216" s="3">
+      <c r="B216">
         <v>24.88</v>
       </c>
       <c r="C216" s="1">
@@ -3650,11 +3648,11 @@
         <v>42148</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>38</v>
       </c>
-      <c r="B217" s="3">
+      <c r="B217">
         <v>22.86</v>
       </c>
       <c r="C217" s="1">
@@ -3664,11 +3662,11 @@
         <v>42148</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>32</v>
       </c>
-      <c r="B218" s="3">
+      <c r="B218">
         <v>22.52</v>
       </c>
       <c r="C218" s="1">
@@ -3678,11 +3676,11 @@
         <v>42148</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>5</v>
       </c>
-      <c r="B219" s="3">
+      <c r="B219">
         <v>13.45</v>
       </c>
       <c r="C219" s="1">
@@ -3692,11 +3690,11 @@
         <v>42148</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>24</v>
       </c>
-      <c r="B220" s="3">
+      <c r="B220">
         <v>12.62</v>
       </c>
       <c r="C220" s="1">
@@ -3706,11 +3704,11 @@
         <v>42148</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>31</v>
       </c>
-      <c r="B221" s="3">
+      <c r="B221">
         <v>1.8</v>
       </c>
       <c r="C221" s="1">
@@ -3720,11 +3718,11 @@
         <v>42148</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>19</v>
       </c>
-      <c r="B222" s="3">
+      <c r="B222">
         <v>130.35</v>
       </c>
       <c r="C222" s="1">
@@ -3734,11 +3732,11 @@
         <v>41770</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>17</v>
       </c>
-      <c r="B223" s="3">
+      <c r="B223">
         <v>122.55</v>
       </c>
       <c r="C223" s="1">
@@ -3748,11 +3746,11 @@
         <v>41770</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>18</v>
       </c>
-      <c r="B224" s="3">
+      <c r="B224">
         <v>115.5</v>
       </c>
       <c r="C224" s="1">
@@ -3762,11 +3760,11 @@
         <v>41770</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>25</v>
       </c>
-      <c r="B225" s="3">
+      <c r="B225">
         <v>77.13</v>
       </c>
       <c r="C225" s="1">
@@ -3776,11 +3774,11 @@
         <v>41770</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>20</v>
       </c>
-      <c r="B226" s="3">
+      <c r="B226">
         <v>58.1</v>
       </c>
       <c r="C226" s="1">
@@ -3790,11 +3788,11 @@
         <v>41770</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>4</v>
       </c>
-      <c r="B227" s="3">
+      <c r="B227">
         <v>49.25</v>
       </c>
       <c r="C227" s="1">
@@ -3804,11 +3802,11 @@
         <v>41770</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>53</v>
       </c>
-      <c r="B228" s="3">
+      <c r="B228">
         <v>45.82</v>
       </c>
       <c r="C228" s="1">
@@ -3818,11 +3816,11 @@
         <v>41770</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>29</v>
       </c>
-      <c r="B229" s="3">
+      <c r="B229">
         <v>39.6</v>
       </c>
       <c r="C229" s="1">
@@ -3832,11 +3830,11 @@
         <v>41770</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>32</v>
       </c>
-      <c r="B230" s="3">
+      <c r="B230">
         <v>33.909999999999997</v>
       </c>
       <c r="C230" s="1">
@@ -3846,11 +3844,11 @@
         <v>41770</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>6</v>
       </c>
-      <c r="B231" s="3">
+      <c r="B231">
         <v>33</v>
       </c>
       <c r="C231" s="1">
@@ -3860,11 +3858,11 @@
         <v>41770</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>21</v>
       </c>
-      <c r="B232" s="3">
+      <c r="B232">
         <v>31.8</v>
       </c>
       <c r="C232" s="1">
@@ -3874,11 +3872,11 @@
         <v>41770</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>13</v>
       </c>
-      <c r="B233" s="3">
+      <c r="B233">
         <v>31.1</v>
       </c>
       <c r="C233" s="1">
@@ -3888,11 +3886,11 @@
         <v>41770</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>37</v>
       </c>
-      <c r="B234" s="3">
+      <c r="B234">
         <v>30.05</v>
       </c>
       <c r="C234" s="1">
@@ -3902,11 +3900,11 @@
         <v>41770</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>14</v>
       </c>
-      <c r="B235" s="3">
+      <c r="B235">
         <v>29.3</v>
       </c>
       <c r="C235" s="1">
@@ -3916,11 +3914,11 @@
         <v>41770</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>33</v>
       </c>
-      <c r="B236" s="3">
+      <c r="B236">
         <v>26.61</v>
       </c>
       <c r="C236" s="1">
@@ -3930,11 +3928,11 @@
         <v>41770</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>22</v>
       </c>
-      <c r="B237" s="3">
+      <c r="B237">
         <v>24</v>
       </c>
       <c r="C237" s="1">
@@ -3944,11 +3942,11 @@
         <v>41770</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>5</v>
       </c>
-      <c r="B238" s="3">
+      <c r="B238">
         <v>19.84</v>
       </c>
       <c r="C238" s="1">
@@ -3958,11 +3956,11 @@
         <v>41770</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>23</v>
       </c>
-      <c r="B239" s="3">
+      <c r="B239">
         <v>15.7</v>
       </c>
       <c r="C239" s="1">
@@ -3972,11 +3970,11 @@
         <v>41770</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>31</v>
       </c>
-      <c r="B240" s="3">
+      <c r="B240">
         <v>7</v>
       </c>
       <c r="C240" s="1">
@@ -3986,11 +3984,11 @@
         <v>41770</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>30</v>
       </c>
-      <c r="B241" s="3">
+      <c r="B241">
         <v>3.8</v>
       </c>
       <c r="C241" s="1">
@@ -4000,11 +3998,11 @@
         <v>41770</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>19</v>
       </c>
-      <c r="B242" s="3">
+      <c r="B242">
         <v>109.7</v>
       </c>
       <c r="C242" s="1">
@@ -4014,11 +4012,11 @@
         <v>41413</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>25</v>
       </c>
-      <c r="B243" s="3">
+      <c r="B243">
         <v>76.45</v>
       </c>
       <c r="C243" s="1">
@@ -4028,11 +4026,11 @@
         <v>41413</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>17</v>
       </c>
-      <c r="B244" s="3">
+      <c r="B244">
         <v>73.25</v>
       </c>
       <c r="C244" s="1">
@@ -4042,11 +4040,11 @@
         <v>41413</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>20</v>
       </c>
-      <c r="B245" s="3">
+      <c r="B245">
         <v>70.599999999999994</v>
       </c>
       <c r="C245" s="1">
@@ -4056,11 +4054,11 @@
         <v>41413</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>18</v>
       </c>
-      <c r="B246" s="3">
+      <c r="B246">
         <v>61.95</v>
       </c>
       <c r="C246" s="1">
@@ -4070,11 +4068,11 @@
         <v>41413</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>4</v>
       </c>
-      <c r="B247" s="3">
+      <c r="B247">
         <v>56</v>
       </c>
       <c r="C247" s="1">
@@ -4084,11 +4082,11 @@
         <v>41413</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>36</v>
       </c>
-      <c r="B248" s="3">
+      <c r="B248">
         <v>50.35</v>
       </c>
       <c r="C248" s="1">
@@ -4098,11 +4096,11 @@
         <v>41413</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>29</v>
       </c>
-      <c r="B249" s="3">
+      <c r="B249">
         <v>41.5</v>
       </c>
       <c r="C249" s="1">
@@ -4112,11 +4110,11 @@
         <v>41413</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>32</v>
       </c>
-      <c r="B250" s="3">
+      <c r="B250">
         <v>38.299999999999997</v>
       </c>
       <c r="C250" s="1">
@@ -4126,11 +4124,11 @@
         <v>41413</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>30</v>
       </c>
-      <c r="B251" s="3">
+      <c r="B251">
         <v>31.97</v>
       </c>
       <c r="C251" s="1">
@@ -4140,11 +4138,11 @@
         <v>41413</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>5</v>
       </c>
-      <c r="B252" s="3">
+      <c r="B252">
         <v>27.83</v>
       </c>
       <c r="C252" s="1">
@@ -4154,11 +4152,11 @@
         <v>41413</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>22</v>
       </c>
-      <c r="B253" s="3">
+      <c r="B253">
         <v>23.9</v>
       </c>
       <c r="C253" s="1">
@@ -4168,11 +4166,11 @@
         <v>41413</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>31</v>
       </c>
-      <c r="B254" s="3">
+      <c r="B254">
         <v>23.68</v>
       </c>
       <c r="C254" s="1">
@@ -4182,11 +4180,11 @@
         <v>41413</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>21</v>
       </c>
-      <c r="B255" s="3">
+      <c r="B255">
         <v>21.65</v>
       </c>
       <c r="C255" s="1">
@@ -4196,11 +4194,11 @@
         <v>41413</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>33</v>
       </c>
-      <c r="B256" s="3">
+      <c r="B256">
         <v>20.47</v>
       </c>
       <c r="C256" s="1">
@@ -4210,11 +4208,11 @@
         <v>41413</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>37</v>
       </c>
-      <c r="B257" s="3">
+      <c r="B257">
         <v>11.08</v>
       </c>
       <c r="C257" s="1">
@@ -4224,11 +4222,11 @@
         <v>41413</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>45</v>
       </c>
-      <c r="B258" s="3">
+      <c r="B258">
         <v>10.82</v>
       </c>
       <c r="C258" s="1">
@@ -4238,11 +4236,11 @@
         <v>41413</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>46</v>
       </c>
-      <c r="B259" s="3">
+      <c r="B259">
         <v>10.54</v>
       </c>
       <c r="C259" s="1">
@@ -4252,11 +4250,11 @@
         <v>41413</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>14</v>
       </c>
-      <c r="B260" s="3">
+      <c r="B260">
         <v>10</v>
       </c>
       <c r="C260" s="1">
@@ -4266,11 +4264,11 @@
         <v>41413</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>23</v>
       </c>
-      <c r="B261" s="3">
+      <c r="B261">
         <v>5</v>
       </c>
       <c r="C261" s="1">
@@ -4280,11 +4278,11 @@
         <v>41413</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>19</v>
       </c>
-      <c r="B262" s="3">
+      <c r="B262">
         <v>96.45</v>
       </c>
       <c r="C262" s="1">
@@ -4294,11 +4292,11 @@
         <v>41042</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>18</v>
       </c>
-      <c r="B263" s="3">
+      <c r="B263">
         <v>91.05</v>
       </c>
       <c r="C263" s="1">
@@ -4308,11 +4306,11 @@
         <v>41042</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>20</v>
       </c>
-      <c r="B264" s="3">
+      <c r="B264">
         <v>69.33</v>
       </c>
       <c r="C264" s="1">
@@ -4322,11 +4320,11 @@
         <v>41042</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>4</v>
       </c>
-      <c r="B265" s="3">
+      <c r="B265">
         <v>65.48</v>
       </c>
       <c r="C265" s="1">
@@ -4336,11 +4334,11 @@
         <v>41042</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>25</v>
       </c>
-      <c r="B266" s="3">
+      <c r="B266">
         <v>62.3</v>
       </c>
       <c r="C266" s="1">
@@ -4350,11 +4348,11 @@
         <v>41042</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>32</v>
       </c>
-      <c r="B267" s="3">
+      <c r="B267">
         <v>27.92</v>
       </c>
       <c r="C267" s="1">
@@ -4364,11 +4362,11 @@
         <v>41042</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>30</v>
       </c>
-      <c r="B268" s="3">
+      <c r="B268">
         <v>27</v>
       </c>
       <c r="C268" s="1">
@@ -4378,11 +4376,11 @@
         <v>41042</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>36</v>
       </c>
-      <c r="B269" s="3">
+      <c r="B269">
         <v>26.23</v>
       </c>
       <c r="C269" s="1">
@@ -4392,11 +4390,11 @@
         <v>41042</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>31</v>
       </c>
-      <c r="B270" s="3">
+      <c r="B270">
         <v>24.8</v>
       </c>
       <c r="C270" s="1">
@@ -4406,11 +4404,11 @@
         <v>41042</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>47</v>
       </c>
-      <c r="B271" s="3">
+      <c r="B271">
         <v>20.55</v>
       </c>
       <c r="C271" s="1">
@@ -4420,11 +4418,11 @@
         <v>41042</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>5</v>
       </c>
-      <c r="B272" s="3">
+      <c r="B272">
         <v>20.34</v>
       </c>
       <c r="C272" s="1">
@@ -4434,11 +4432,11 @@
         <v>41042</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>14</v>
       </c>
-      <c r="B273" s="3">
+      <c r="B273">
         <v>18.13</v>
       </c>
       <c r="C273" s="1">
@@ -4448,11 +4446,11 @@
         <v>41042</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>48</v>
       </c>
-      <c r="B274" s="3">
+      <c r="B274">
         <v>15.6</v>
       </c>
       <c r="C274" s="1">
@@ -4462,11 +4460,11 @@
         <v>41042</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>37</v>
       </c>
-      <c r="B275" s="3">
+      <c r="B275">
         <v>15.25</v>
       </c>
       <c r="C275" s="1">
@@ -4476,11 +4474,11 @@
         <v>41042</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>33</v>
       </c>
-      <c r="B276" s="3">
+      <c r="B276">
         <v>12.85</v>
       </c>
       <c r="C276" s="1">
@@ -4490,11 +4488,11 @@
         <v>41042</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>46</v>
       </c>
-      <c r="B277" s="3">
+      <c r="B277">
         <v>12.38</v>
       </c>
       <c r="C277" s="1">
@@ -4504,11 +4502,11 @@
         <v>41042</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>10</v>
       </c>
-      <c r="B278" s="3">
+      <c r="B278">
         <v>12.05</v>
       </c>
       <c r="C278" s="1">
@@ -4518,11 +4516,11 @@
         <v>41042</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>23</v>
       </c>
-      <c r="B279" s="3">
+      <c r="B279">
         <v>9.14</v>
       </c>
       <c r="C279" s="1">
@@ -4532,11 +4530,11 @@
         <v>41042</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>17</v>
       </c>
-      <c r="B280" s="3">
+      <c r="B280">
         <v>9</v>
       </c>
       <c r="C280" s="1">
@@ -4546,11 +4544,11 @@
         <v>41042</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>21</v>
       </c>
-      <c r="B281" s="3">
+      <c r="B281">
         <v>7.2</v>
       </c>
       <c r="C281" s="1">
@@ -4560,11 +4558,11 @@
         <v>41042</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>18</v>
       </c>
-      <c r="B282" s="3">
+      <c r="B282">
         <v>183.61</v>
       </c>
       <c r="C282" s="1">
@@ -4574,11 +4572,11 @@
         <v>40685</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>19</v>
       </c>
-      <c r="B283" s="3">
+      <c r="B283">
         <v>121.5</v>
       </c>
       <c r="C283" s="1">
@@ -4588,11 +4586,11 @@
         <v>40685</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>20</v>
       </c>
-      <c r="B284" s="3">
+      <c r="B284">
         <v>97.73</v>
       </c>
       <c r="C284" s="1">
@@ -4602,11 +4600,11 @@
         <v>40685</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>5</v>
       </c>
-      <c r="B285" s="3">
+      <c r="B285">
         <v>37.4</v>
       </c>
       <c r="C285" s="1">
@@ -4616,11 +4614,11 @@
         <v>40685</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>25</v>
       </c>
-      <c r="B286" s="3">
+      <c r="B286">
         <v>29.3</v>
       </c>
       <c r="C286" s="1">
@@ -4630,11 +4628,11 @@
         <v>40685</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>32</v>
       </c>
-      <c r="B287" s="3">
+      <c r="B287">
         <v>29.1</v>
       </c>
       <c r="C287" s="1">
@@ -4644,11 +4642,11 @@
         <v>40685</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>17</v>
       </c>
-      <c r="B288" s="3">
+      <c r="B288">
         <v>26.6</v>
       </c>
       <c r="C288" s="1">
@@ -4658,11 +4656,11 @@
         <v>40685</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>49</v>
       </c>
-      <c r="B289" s="3">
+      <c r="B289">
         <v>25.6</v>
       </c>
       <c r="C289" s="1">
@@ -4672,11 +4670,11 @@
         <v>40685</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>4</v>
       </c>
-      <c r="B290" s="3">
+      <c r="B290">
         <v>23</v>
       </c>
       <c r="C290" s="1">
@@ -4686,11 +4684,11 @@
         <v>40685</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>31</v>
       </c>
-      <c r="B291" s="3">
+      <c r="B291">
         <v>21.1</v>
       </c>
       <c r="C291" s="1">
@@ -4700,11 +4698,11 @@
         <v>40685</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>10</v>
       </c>
-      <c r="B292" s="3">
+      <c r="B292">
         <v>20.22</v>
       </c>
       <c r="C292" s="1">
@@ -4714,11 +4712,11 @@
         <v>40685</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>22</v>
       </c>
-      <c r="B293" s="3">
+      <c r="B293">
         <v>18.03</v>
       </c>
       <c r="C293" s="1">
@@ -4728,11 +4726,11 @@
         <v>40685</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>30</v>
       </c>
-      <c r="B294" s="3">
+      <c r="B294">
         <v>13.98</v>
       </c>
       <c r="C294" s="1">
@@ -4742,11 +4740,11 @@
         <v>40685</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>23</v>
       </c>
-      <c r="B295" s="3">
+      <c r="B295">
         <v>13.83</v>
       </c>
       <c r="C295" s="1">
@@ -4756,11 +4754,11 @@
         <v>40685</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>46</v>
       </c>
-      <c r="B296" s="3">
+      <c r="B296">
         <v>11.4</v>
       </c>
       <c r="C296" s="1">
@@ -4770,11 +4768,11 @@
         <v>40685</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>14</v>
       </c>
-      <c r="B297" s="3">
+      <c r="B297">
         <v>11.05</v>
       </c>
       <c r="C297" s="1">
@@ -4784,11 +4782,11 @@
         <v>40685</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>54</v>
       </c>
-      <c r="B298" s="3">
+      <c r="B298">
         <v>5.73</v>
       </c>
       <c r="C298" s="1">
@@ -4798,11 +4796,11 @@
         <v>40685</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>48</v>
       </c>
-      <c r="B299" s="3">
+      <c r="B299">
         <v>5.4</v>
       </c>
       <c r="C299" s="1">
@@ -4812,11 +4810,11 @@
         <v>40685</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>47</v>
       </c>
-      <c r="B300" s="3">
+      <c r="B300">
         <v>5.05</v>
       </c>
       <c r="C300" s="1">
@@ -4826,11 +4824,11 @@
         <v>40685</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>21</v>
       </c>
-      <c r="B301" s="3">
+      <c r="B301">
         <v>1.7</v>
       </c>
       <c r="C301" s="1">
@@ -4840,11 +4838,11 @@
         <v>40685</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>18</v>
       </c>
-      <c r="B302" s="3">
+      <c r="B302">
         <v>147.30000000000001</v>
       </c>
       <c r="C302" s="1">
@@ -4854,11 +4852,11 @@
         <v>40307</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>5</v>
       </c>
-      <c r="B303" s="3">
+      <c r="B303">
         <v>46.9</v>
       </c>
       <c r="C303" s="1">
@@ -4868,11 +4866,11 @@
         <v>40307</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>20</v>
       </c>
-      <c r="B304" s="3">
+      <c r="B304">
         <v>43.5</v>
       </c>
       <c r="C304" s="1">
@@ -4882,11 +4880,11 @@
         <v>40307</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>17</v>
       </c>
-      <c r="B305" s="3">
+      <c r="B305">
         <v>40.299999999999997</v>
       </c>
       <c r="C305" s="1">
@@ -4896,11 +4894,11 @@
         <v>40307</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>32</v>
       </c>
-      <c r="B306" s="3">
+      <c r="B306">
         <v>37</v>
       </c>
       <c r="C306" s="1">
@@ -4910,11 +4908,11 @@
         <v>40307</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>19</v>
       </c>
-      <c r="B307" s="3">
+      <c r="B307">
         <v>30</v>
       </c>
       <c r="C307" s="1">
@@ -4924,11 +4922,11 @@
         <v>40307</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>25</v>
       </c>
-      <c r="B308" s="3">
+      <c r="B308">
         <v>27.3</v>
       </c>
       <c r="C308" s="1">
@@ -4938,11 +4936,11 @@
         <v>40307</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>31</v>
       </c>
-      <c r="B309" s="3">
+      <c r="B309">
         <v>26.05</v>
       </c>
       <c r="C309" s="1">
@@ -4952,11 +4950,11 @@
         <v>40307</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>21</v>
       </c>
-      <c r="B310" s="3">
+      <c r="B310">
         <v>23.3</v>
       </c>
       <c r="C310" s="1">
@@ -4966,11 +4964,11 @@
         <v>40307</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>22</v>
       </c>
-      <c r="B311" s="3">
+      <c r="B311">
         <v>21.65</v>
       </c>
       <c r="C311" s="1">
@@ -4980,11 +4978,11 @@
         <v>40307</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>49</v>
       </c>
-      <c r="B312" s="3">
+      <c r="B312">
         <v>20.05</v>
       </c>
       <c r="C312" s="1">
@@ -4994,11 +4992,11 @@
         <v>40307</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>10</v>
       </c>
-      <c r="B313" s="3">
+      <c r="B313">
         <v>19.45</v>
       </c>
       <c r="C313" s="1">
@@ -5008,11 +5006,11 @@
         <v>40307</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>46</v>
       </c>
-      <c r="B314" s="3">
+      <c r="B314">
         <v>18.440000000000001</v>
       </c>
       <c r="C314" s="1">
@@ -5022,11 +5020,11 @@
         <v>40307</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>66</v>
       </c>
-      <c r="B315" s="3">
+      <c r="B315">
         <v>14.85</v>
       </c>
       <c r="C315" s="1">
@@ -5036,11 +5034,11 @@
         <v>40307</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>24</v>
       </c>
-      <c r="B316" s="3">
+      <c r="B316">
         <v>13.54</v>
       </c>
       <c r="C316" s="1">
@@ -5050,11 +5048,11 @@
         <v>40307</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>47</v>
       </c>
-      <c r="B317" s="3">
+      <c r="B317">
         <v>13.28</v>
       </c>
       <c r="C317" s="1">
@@ -5064,11 +5062,11 @@
         <v>40307</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>4</v>
       </c>
-      <c r="B318" s="3">
+      <c r="B318">
         <v>12</v>
       </c>
       <c r="C318" s="1">
@@ -5078,11 +5076,11 @@
         <v>40307</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>48</v>
       </c>
-      <c r="B319" s="3">
+      <c r="B319">
         <v>12</v>
       </c>
       <c r="C319" s="1">
@@ -5092,11 +5090,11 @@
         <v>40307</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>51</v>
       </c>
-      <c r="B320" s="3">
+      <c r="B320">
         <v>10.56</v>
       </c>
       <c r="C320" s="1">
@@ -5106,11 +5104,11 @@
         <v>40307</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>14</v>
       </c>
-      <c r="B321" s="3">
+      <c r="B321">
         <v>7.11</v>
       </c>
       <c r="C321" s="1">
@@ -5120,11 +5118,11 @@
         <v>40307</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>18</v>
       </c>
-      <c r="B322" s="3">
+      <c r="B322">
         <v>157.35</v>
       </c>
       <c r="C322" s="1">
@@ -5134,11 +5132,11 @@
         <v>39957</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>17</v>
       </c>
-      <c r="B323" s="3">
+      <c r="B323">
         <v>143.94999999999999</v>
       </c>
       <c r="C323" s="1">
@@ -5148,11 +5146,11 @@
         <v>39957</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>20</v>
       </c>
-      <c r="B324" s="3">
+      <c r="B324">
         <v>73.45</v>
       </c>
       <c r="C324" s="1">
@@ -5162,11 +5160,11 @@
         <v>39957</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>5</v>
       </c>
-      <c r="B325" s="3">
+      <c r="B325">
         <v>55.9</v>
       </c>
       <c r="C325" s="1">
@@ -5176,11 +5174,11 @@
         <v>39957</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>25</v>
       </c>
-      <c r="B326" s="3">
+      <c r="B326">
         <v>45.25</v>
       </c>
       <c r="C326" s="1">
@@ -5190,11 +5188,11 @@
         <v>39957</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>4</v>
       </c>
-      <c r="B327" s="3">
+      <c r="B327">
         <v>40.15</v>
       </c>
       <c r="C327" s="1">
@@ -5204,11 +5202,11 @@
         <v>39957</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>30</v>
       </c>
-      <c r="B328" s="3">
+      <c r="B328">
         <v>35.479999999999997</v>
       </c>
       <c r="C328" s="1">
@@ -5218,11 +5216,11 @@
         <v>39957</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>31</v>
       </c>
-      <c r="B329" s="3">
+      <c r="B329">
         <v>33.950000000000003</v>
       </c>
       <c r="C329" s="1">
@@ -5232,11 +5230,11 @@
         <v>39957</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>32</v>
       </c>
-      <c r="B330" s="3">
+      <c r="B330">
         <v>33.11</v>
       </c>
       <c r="C330" s="1">
@@ -5246,11 +5244,11 @@
         <v>39957</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>19</v>
       </c>
-      <c r="B331" s="3">
+      <c r="B331">
         <v>30.5</v>
       </c>
       <c r="C331" s="1">
@@ -5260,11 +5258,11 @@
         <v>39957</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>51</v>
       </c>
-      <c r="B332" s="3">
+      <c r="B332">
         <v>28.2</v>
       </c>
       <c r="C332" s="1">
@@ -5274,11 +5272,11 @@
         <v>39957</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>14</v>
       </c>
-      <c r="B333" s="3">
+      <c r="B333">
         <v>26.85</v>
       </c>
       <c r="C333" s="1">
@@ -5288,11 +5286,11 @@
         <v>39957</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>21</v>
       </c>
-      <c r="B334" s="3">
+      <c r="B334">
         <v>25.08</v>
       </c>
       <c r="C334" s="1">
@@ -5302,11 +5300,11 @@
         <v>39957</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>23</v>
       </c>
-      <c r="B335" s="3">
+      <c r="B335">
         <v>24.32</v>
       </c>
       <c r="C335" s="1">
@@ -5316,11 +5314,11 @@
         <v>39957</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>46</v>
       </c>
-      <c r="B336" s="3">
+      <c r="B336">
         <v>24.1</v>
       </c>
       <c r="C336" s="1">
@@ -5330,11 +5328,11 @@
         <v>39957</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>48</v>
       </c>
-      <c r="B337" s="3">
+      <c r="B337">
         <v>23.7</v>
       </c>
       <c r="C337" s="1">
@@ -5344,11 +5342,11 @@
         <v>39957</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>13</v>
       </c>
-      <c r="B338" s="3">
+      <c r="B338">
         <v>17.95</v>
       </c>
       <c r="C338" s="1">
@@ -5358,11 +5356,11 @@
         <v>39957</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>22</v>
       </c>
-      <c r="B339" s="3">
+      <c r="B339">
         <v>16</v>
       </c>
       <c r="C339" s="1">
@@ -5372,11 +5370,11 @@
         <v>39957</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>52</v>
       </c>
-      <c r="B340" s="3">
+      <c r="B340">
         <v>12.8</v>
       </c>
       <c r="C340" s="1">
@@ -5386,11 +5384,11 @@
         <v>39957</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>47</v>
       </c>
-      <c r="B341" s="3">
+      <c r="B341">
         <v>11.68</v>
       </c>
       <c r="C341" s="1">
@@ -5400,11 +5398,11 @@
         <v>39957</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>25</v>
       </c>
-      <c r="B342" s="3">
+      <c r="B342">
         <v>106.5</v>
       </c>
       <c r="C342" s="1">
@@ -5414,11 +5412,11 @@
         <v>39579</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>17</v>
       </c>
-      <c r="B343" s="3">
+      <c r="B343">
         <v>94.15</v>
       </c>
       <c r="C343" s="1">
@@ -5428,11 +5426,11 @@
         <v>39579</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>20</v>
       </c>
-      <c r="B344" s="3">
+      <c r="B344">
         <v>90.7</v>
       </c>
       <c r="C344" s="1">
@@ -5442,11 +5440,11 @@
         <v>39579</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>18</v>
       </c>
-      <c r="B345" s="3">
+      <c r="B345">
         <v>77.95</v>
       </c>
       <c r="C345" s="1">
@@ -5456,11 +5454,11 @@
         <v>39579</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>32</v>
       </c>
-      <c r="B346" s="3">
+      <c r="B346">
         <v>64.319999999999993</v>
       </c>
       <c r="C346" s="1">
@@ -5470,11 +5468,11 @@
         <v>39579</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>19</v>
       </c>
-      <c r="B347" s="3">
+      <c r="B347">
         <v>59</v>
       </c>
       <c r="C347" s="1">
@@ -5484,11 +5482,11 @@
         <v>39579</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>51</v>
       </c>
-      <c r="B348" s="3">
+      <c r="B348">
         <v>58.64</v>
       </c>
       <c r="C348" s="1">
@@ -5498,11 +5496,11 @@
         <v>39579</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>52</v>
       </c>
-      <c r="B349" s="3">
+      <c r="B349">
         <v>50.6</v>
       </c>
       <c r="C349" s="1">
@@ -5512,11 +5510,11 @@
         <v>39579</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>14</v>
       </c>
-      <c r="B350" s="3">
+      <c r="B350">
         <v>50.43</v>
       </c>
       <c r="C350" s="1">
@@ -5526,11 +5524,11 @@
         <v>39579</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>22</v>
       </c>
-      <c r="B351" s="3">
+      <c r="B351">
         <v>47.15</v>
       </c>
       <c r="C351" s="1">
@@ -5540,11 +5538,11 @@
         <v>39579</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>30</v>
       </c>
-      <c r="B352" s="3">
+      <c r="B352">
         <v>37.85</v>
       </c>
       <c r="C352" s="1">
@@ -5554,11 +5552,11 @@
         <v>39579</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>21</v>
       </c>
-      <c r="B353" s="3">
+      <c r="B353">
         <v>37.549999999999997</v>
       </c>
       <c r="C353" s="1">
@@ -5568,11 +5566,11 @@
         <v>39579</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>4</v>
       </c>
-      <c r="B354" s="3">
+      <c r="B354">
         <v>30.95</v>
       </c>
       <c r="C354" s="1">
@@ -5582,11 +5580,11 @@
         <v>39579</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>49</v>
       </c>
-      <c r="B355" s="3">
+      <c r="B355">
         <v>29.3</v>
       </c>
       <c r="C355" s="1">
@@ -5596,11 +5594,11 @@
         <v>39579</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>5</v>
       </c>
-      <c r="B356" s="3">
+      <c r="B356">
         <v>24.9</v>
       </c>
       <c r="C356" s="1">
@@ -5610,11 +5608,11 @@
         <v>39579</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>44</v>
       </c>
-      <c r="B357" s="3">
+      <c r="B357">
         <v>22.68</v>
       </c>
       <c r="C357" s="1">
@@ -5624,11 +5622,11 @@
         <v>39579</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>48</v>
       </c>
-      <c r="B358" s="3">
+      <c r="B358">
         <v>22.35</v>
       </c>
       <c r="C358" s="1">
@@ -5638,11 +5636,11 @@
         <v>39579</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>46</v>
       </c>
-      <c r="B359" s="3">
+      <c r="B359">
         <v>17.899999999999999</v>
       </c>
       <c r="C359" s="1">
@@ -5652,11 +5650,11 @@
         <v>39579</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>45</v>
       </c>
-      <c r="B360" s="3">
+      <c r="B360">
         <v>12.1</v>
       </c>
       <c r="C360" s="1">
@@ -5666,11 +5664,11 @@
         <v>39579</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>47</v>
       </c>
-      <c r="B361" s="3">
+      <c r="B361">
         <v>6.2</v>
       </c>
       <c r="C361" s="1">
@@ -5680,11 +5678,11 @@
         <v>39579</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>19</v>
       </c>
-      <c r="B362" s="3">
+      <c r="B362">
         <v>88.98</v>
       </c>
       <c r="C362" s="1">
@@ -5694,11 +5692,11 @@
         <v>39215</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>22</v>
       </c>
-      <c r="B363" s="3">
+      <c r="B363">
         <v>69.849999999999994</v>
       </c>
       <c r="C363" s="1">
@@ -5708,11 +5706,11 @@
         <v>39215</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>17</v>
       </c>
-      <c r="B364" s="3">
+      <c r="B364">
         <v>61</v>
       </c>
       <c r="C364" s="1">
@@ -5722,11 +5720,11 @@
         <v>39215</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>20</v>
       </c>
-      <c r="B365" s="3">
+      <c r="B365">
         <v>46</v>
       </c>
       <c r="C365" s="1">
@@ -5736,11 +5734,11 @@
         <v>39215</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>30</v>
       </c>
-      <c r="B366" s="3">
+      <c r="B366">
         <v>31.88</v>
       </c>
       <c r="C366" s="1">
@@ -5750,11 +5748,11 @@
         <v>39215</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>46</v>
       </c>
-      <c r="B367" s="3">
+      <c r="B367">
         <v>29.38</v>
       </c>
       <c r="C367" s="1">
@@ -5764,11 +5762,11 @@
         <v>39215</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>25</v>
       </c>
-      <c r="B368" s="3">
+      <c r="B368">
         <v>27.2</v>
       </c>
       <c r="C368" s="1">
@@ -5778,11 +5776,11 @@
         <v>39215</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>5</v>
       </c>
-      <c r="B369" s="3">
+      <c r="B369">
         <v>24.7</v>
       </c>
       <c r="C369" s="1">
@@ -5792,11 +5790,11 @@
         <v>39215</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>50</v>
       </c>
-      <c r="B370" s="3">
+      <c r="B370">
         <v>21.65</v>
       </c>
       <c r="C370" s="1">
@@ -5806,11 +5804,11 @@
         <v>39215</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>12</v>
       </c>
-      <c r="B371" s="3">
+      <c r="B371">
         <v>18.03</v>
       </c>
       <c r="C371" s="1">
@@ -5820,11 +5818,11 @@
         <v>39215</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>47</v>
       </c>
-      <c r="B372" s="3">
+      <c r="B372">
         <v>17.98</v>
       </c>
       <c r="C372" s="1">
@@ -5834,11 +5832,11 @@
         <v>39215</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>21</v>
       </c>
-      <c r="B373" s="3">
+      <c r="B373">
         <v>17.899999999999999</v>
       </c>
       <c r="C373" s="1">
@@ -5848,11 +5846,11 @@
         <v>39215</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>48</v>
       </c>
-      <c r="B374" s="3">
+      <c r="B374">
         <v>17</v>
       </c>
       <c r="C374" s="1">
@@ -5862,11 +5860,11 @@
         <v>39215</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>4</v>
       </c>
-      <c r="B375" s="3">
+      <c r="B375">
         <v>15</v>
       </c>
       <c r="C375" s="1">
@@ -5876,11 +5874,11 @@
         <v>39215</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>14</v>
       </c>
-      <c r="B376" s="3">
+      <c r="B376">
         <v>13.8</v>
       </c>
       <c r="C376" s="1">
@@ -5890,11 +5888,11 @@
         <v>39215</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>52</v>
       </c>
-      <c r="B377" s="3">
+      <c r="B377">
         <v>11.3</v>
       </c>
       <c r="C377" s="1">
@@ -5904,11 +5902,11 @@
         <v>39215</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>34</v>
       </c>
-      <c r="B378" s="3">
+      <c r="B378">
         <v>10.48</v>
       </c>
       <c r="C378" s="1">
@@ -5918,11 +5916,11 @@
         <v>39215</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>51</v>
       </c>
-      <c r="B379" s="3">
+      <c r="B379">
         <v>9.1</v>
       </c>
       <c r="C379" s="1">
@@ -5932,11 +5930,11 @@
         <v>39215</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>45</v>
       </c>
-      <c r="B380" s="3">
+      <c r="B380">
         <v>8.83</v>
       </c>
       <c r="C380" s="1">
@@ -5946,11 +5944,11 @@
         <v>39215</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>18</v>
       </c>
-      <c r="B381" s="3">
+      <c r="B381">
         <v>6.5</v>
       </c>
       <c r="C381" s="1">
@@ -5960,11 +5958,11 @@
         <v>39215</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>19</v>
       </c>
-      <c r="B382" s="3">
+      <c r="B382">
         <v>91.5</v>
       </c>
       <c r="C382" s="1">
@@ -5974,11 +5972,11 @@
         <v>38844</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>30</v>
       </c>
-      <c r="B383" s="3">
+      <c r="B383">
         <v>61.75</v>
       </c>
       <c r="C383" s="1">
@@ -5988,11 +5986,11 @@
         <v>38844</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>4</v>
       </c>
-      <c r="B384" s="3">
+      <c r="B384">
         <v>46</v>
       </c>
       <c r="C384" s="1">
@@ -6002,11 +6000,11 @@
         <v>38844</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>20</v>
       </c>
-      <c r="B385" s="3">
+      <c r="B385">
         <v>44.06</v>
       </c>
       <c r="C385" s="1">
@@ -6016,11 +6014,11 @@
         <v>38844</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>17</v>
       </c>
-      <c r="B386" s="3">
+      <c r="B386">
         <v>36.51</v>
       </c>
       <c r="C386" s="1">
@@ -6030,11 +6028,11 @@
         <v>38844</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>21</v>
       </c>
-      <c r="B387" s="3">
+      <c r="B387">
         <v>32.729999999999997</v>
       </c>
       <c r="C387" s="1">
@@ -6044,11 +6042,11 @@
         <v>38844</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>25</v>
       </c>
-      <c r="B388" s="3">
+      <c r="B388">
         <v>31.8</v>
       </c>
       <c r="C388" s="1">
@@ -6058,11 +6056,11 @@
         <v>38844</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>22</v>
       </c>
-      <c r="B389" s="3">
+      <c r="B389">
         <v>21.59</v>
       </c>
       <c r="C389" s="1">
@@ -6072,11 +6070,11 @@
         <v>38844</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>51</v>
       </c>
-      <c r="B390" s="3">
+      <c r="B390">
         <v>18.78</v>
       </c>
       <c r="C390" s="1">
@@ -6086,11 +6084,11 @@
         <v>38844</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>5</v>
       </c>
-      <c r="B391" s="3">
+      <c r="B391">
         <v>16.54</v>
       </c>
       <c r="C391" s="1">
@@ -6100,11 +6098,11 @@
         <v>38844</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>46</v>
       </c>
-      <c r="B392" s="3">
+      <c r="B392">
         <v>15.77</v>
       </c>
       <c r="C392" s="1">
@@ -6114,11 +6112,11 @@
         <v>38844</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>23</v>
       </c>
-      <c r="B393" s="3">
+      <c r="B393">
         <v>15.3</v>
       </c>
       <c r="C393" s="1">
@@ -6128,11 +6126,11 @@
         <v>38844</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>52</v>
       </c>
-      <c r="B394" s="3">
+      <c r="B394">
         <v>13.96</v>
       </c>
       <c r="C394" s="1">
@@ -6142,11 +6140,11 @@
         <v>38844</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>18</v>
       </c>
-      <c r="B395" s="3">
+      <c r="B395">
         <v>12.48</v>
       </c>
       <c r="C395" s="1">
@@ -6156,11 +6154,11 @@
         <v>38844</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>49</v>
       </c>
-      <c r="B396" s="3">
+      <c r="B396">
         <v>12.1</v>
       </c>
       <c r="C396" s="1">
@@ -6170,11 +6168,11 @@
         <v>38844</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>47</v>
       </c>
-      <c r="B397" s="3">
+      <c r="B397">
         <v>9.4</v>
       </c>
       <c r="C397" s="1">
@@ -6184,11 +6182,11 @@
         <v>38844</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>50</v>
       </c>
-      <c r="B398" s="3">
+      <c r="B398">
         <v>9.1</v>
       </c>
       <c r="C398" s="1">
@@ -6198,11 +6196,11 @@
         <v>38844</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>14</v>
       </c>
-      <c r="B399" s="3">
+      <c r="B399">
         <v>6.55</v>
       </c>
       <c r="C399" s="1">
@@ -6212,11 +6210,11 @@
         <v>38844</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>48</v>
       </c>
-      <c r="B400" s="3">
+      <c r="B400">
         <v>6.2</v>
       </c>
       <c r="C400" s="1">
@@ -6226,11 +6224,11 @@
         <v>38844</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>32</v>
       </c>
-      <c r="B401" s="3">
+      <c r="B401">
         <v>5.93</v>
       </c>
       <c r="C401" s="1">
@@ -6240,11 +6238,11 @@
         <v>38844</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>19</v>
       </c>
-      <c r="B402" s="3">
+      <c r="B402">
         <v>162.4</v>
       </c>
       <c r="C402" s="1">
@@ -6254,11 +6252,11 @@
         <v>38487</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>25</v>
       </c>
-      <c r="B403" s="3">
+      <c r="B403">
         <v>61.25</v>
       </c>
       <c r="C403" s="1">
@@ -6268,11 +6266,11 @@
         <v>38487</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>20</v>
       </c>
-      <c r="B404" s="3">
+      <c r="B404">
         <v>58.4</v>
       </c>
       <c r="C404" s="1">
@@ -6282,11 +6280,11 @@
         <v>38487</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>17</v>
       </c>
-      <c r="B405" s="3">
+      <c r="B405">
         <v>47.13</v>
       </c>
       <c r="C405" s="1">
@@ -6296,11 +6294,11 @@
         <v>38487</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>30</v>
       </c>
-      <c r="B406" s="3">
+      <c r="B406">
         <v>29.45</v>
       </c>
       <c r="C406" s="1">
@@ -6310,11 +6308,11 @@
         <v>38487</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>23</v>
       </c>
-      <c r="B407" s="3">
+      <c r="B407">
         <v>15.85</v>
       </c>
       <c r="C407" s="1">
@@ -6324,11 +6322,11 @@
         <v>38487</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>49</v>
       </c>
-      <c r="B408" s="3">
+      <c r="B408">
         <v>15.77</v>
       </c>
       <c r="C408" s="1">
@@ -6338,11 +6336,11 @@
         <v>38487</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>14</v>
       </c>
-      <c r="B409" s="3">
+      <c r="B409">
         <v>13.95</v>
       </c>
       <c r="C409" s="1">
@@ -6352,11 +6350,11 @@
         <v>38487</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>50</v>
       </c>
-      <c r="B410" s="3">
+      <c r="B410">
         <v>13.25</v>
       </c>
       <c r="C410" s="1">
@@ -6366,11 +6364,11 @@
         <v>38487</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>29</v>
       </c>
-      <c r="B411" s="3">
+      <c r="B411">
         <v>12.68</v>
       </c>
       <c r="C411" s="1">
@@ -6380,11 +6378,11 @@
         <v>38487</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>4</v>
       </c>
-      <c r="B412" s="3">
+      <c r="B412">
         <v>12.48</v>
       </c>
       <c r="C412" s="1">
@@ -6394,11 +6392,11 @@
         <v>38487</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>21</v>
       </c>
-      <c r="B413" s="3">
+      <c r="B413">
         <v>11.88</v>
       </c>
       <c r="C413" s="1">
@@ -6408,11 +6406,11 @@
         <v>38487</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>51</v>
       </c>
-      <c r="B414" s="3">
+      <c r="B414">
         <v>10.85</v>
       </c>
       <c r="C414" s="1">
@@ -6422,11 +6420,11 @@
         <v>38487</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>5</v>
       </c>
-      <c r="B415" s="3">
+      <c r="B415">
         <v>10.14</v>
       </c>
       <c r="C415" s="1">
@@ -6436,11 +6434,11 @@
         <v>38487</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>37</v>
       </c>
-      <c r="B416" s="3">
+      <c r="B416">
         <v>8.5299999999999994</v>
       </c>
       <c r="C416" s="1">
@@ -6450,11 +6448,11 @@
         <v>38487</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>47</v>
       </c>
-      <c r="B417" s="3">
+      <c r="B417">
         <v>7.88</v>
       </c>
       <c r="C417" s="1">
@@ -6464,11 +6462,11 @@
         <v>38487</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>52</v>
       </c>
-      <c r="B418" s="3">
+      <c r="B418">
         <v>6.75</v>
       </c>
       <c r="C418" s="1">
@@ -6478,11 +6476,11 @@
         <v>38487</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>6</v>
       </c>
-      <c r="B419" s="3">
+      <c r="B419">
         <v>5.15</v>
       </c>
       <c r="C419" s="1">
@@ -6492,11 +6490,11 @@
         <v>38487</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>18</v>
       </c>
-      <c r="B420" s="3">
+      <c r="B420">
         <v>1.5</v>
       </c>
       <c r="C420" s="1">
@@ -6506,11 +6504,11 @@
         <v>38487</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>48</v>
       </c>
-      <c r="B421" s="3">
+      <c r="B421">
         <v>1.38</v>
       </c>
       <c r="C421" s="1">
@@ -6520,11 +6518,11 @@
         <v>38487</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>19</v>
       </c>
-      <c r="B422" s="3">
+      <c r="B422">
         <v>173.7</v>
       </c>
       <c r="C422" s="1">
@@ -6534,11 +6532,11 @@
         <v>38122</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>25</v>
       </c>
-      <c r="B423" s="3">
+      <c r="B423">
         <v>56.53</v>
       </c>
       <c r="C423" s="1">
@@ -6548,11 +6546,11 @@
         <v>38122</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>17</v>
       </c>
-      <c r="B424" s="3">
+      <c r="B424">
         <v>29.75</v>
       </c>
       <c r="C424" s="1">
@@ -6562,11 +6560,11 @@
         <v>38122</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>4</v>
       </c>
-      <c r="B425" s="3">
+      <c r="B425">
         <v>27.42</v>
       </c>
       <c r="C425" s="1">
@@ -6576,11 +6574,11 @@
         <v>38122</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>47</v>
       </c>
-      <c r="B426" s="3">
+      <c r="B426">
         <v>22.34</v>
       </c>
       <c r="C426" s="1">
@@ -6590,11 +6588,11 @@
         <v>38122</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>49</v>
       </c>
-      <c r="B427" s="3">
+      <c r="B427">
         <v>17.100000000000001</v>
       </c>
       <c r="C427" s="1">
@@ -6604,11 +6602,11 @@
         <v>38122</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>20</v>
       </c>
-      <c r="B428" s="3">
+      <c r="B428">
         <v>15.65</v>
       </c>
       <c r="C428" s="1">
@@ -6618,11 +6616,11 @@
         <v>38122</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>18</v>
       </c>
-      <c r="B429" s="3">
+      <c r="B429">
         <v>14.26</v>
       </c>
       <c r="C429" s="1">
@@ -6632,11 +6630,11 @@
         <v>38122</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>51</v>
       </c>
-      <c r="B430" s="3">
+      <c r="B430">
         <v>11.78</v>
       </c>
       <c r="C430" s="1">
@@ -6646,11 +6644,11 @@
         <v>38122</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>52</v>
       </c>
-      <c r="B431" s="3">
+      <c r="B431">
         <v>10.199999999999999</v>
       </c>
       <c r="C431" s="1">
@@ -6660,11 +6658,11 @@
         <v>38122</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>21</v>
       </c>
-      <c r="B432" s="3">
+      <c r="B432">
         <v>9.92</v>
       </c>
       <c r="C432" s="1">
@@ -6674,11 +6672,11 @@
         <v>38122</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>10</v>
       </c>
-      <c r="B433" s="3">
+      <c r="B433">
         <v>9.8800000000000008</v>
       </c>
       <c r="C433" s="1">
@@ -6688,11 +6686,11 @@
         <v>38122</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>29</v>
       </c>
-      <c r="B434" s="3">
+      <c r="B434">
         <v>8.98</v>
       </c>
       <c r="C434" s="1">
@@ -6702,11 +6700,11 @@
         <v>38122</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>14</v>
       </c>
-      <c r="B435" s="3">
+      <c r="B435">
         <v>8.48</v>
       </c>
       <c r="C435" s="1">
@@ -6716,11 +6714,11 @@
         <v>38122</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>5</v>
       </c>
-      <c r="B436" s="3">
+      <c r="B436">
         <v>8.3800000000000008</v>
       </c>
       <c r="C436" s="1">
@@ -6730,11 +6728,11 @@
         <v>38122</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>50</v>
       </c>
-      <c r="B437" s="3">
+      <c r="B437">
         <v>1.5</v>
       </c>
       <c r="C437" s="1">
@@ -6744,11 +6742,11 @@
         <v>38122</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>38</v>
       </c>
-      <c r="B438" s="3">
+      <c r="B438">
         <v>1.42</v>
       </c>
       <c r="C438" s="1">
@@ -6758,7 +6756,7 @@
         <v>38122</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>48</v>
       </c>
@@ -6772,7 +6770,7 @@
         <v>38122</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>39</v>
       </c>
@@ -6786,7 +6784,7 @@
         <v>38122</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>30</v>
       </c>
@@ -6800,11 +6798,11 @@
         <v>38122</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>25</v>
       </c>
-      <c r="B442" s="3">
+      <c r="B442">
         <v>48.53</v>
       </c>
       <c r="C442" s="1">
@@ -6814,11 +6812,11 @@
         <v>37752</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>18</v>
       </c>
-      <c r="B443" s="3">
+      <c r="B443">
         <v>44.45</v>
       </c>
       <c r="C443" s="1">
@@ -6828,11 +6826,11 @@
         <v>37752</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>30</v>
       </c>
-      <c r="B444" s="3">
+      <c r="B444">
         <v>34.549999999999997</v>
       </c>
       <c r="C444" s="1">
@@ -6842,11 +6840,11 @@
         <v>37752</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>52</v>
       </c>
-      <c r="B445" s="3">
+      <c r="B445">
         <v>34.08</v>
       </c>
       <c r="C445" s="1">
@@ -6856,11 +6854,11 @@
         <v>37752</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>20</v>
       </c>
-      <c r="B446" s="3">
+      <c r="B446">
         <v>31.5</v>
       </c>
       <c r="C446" s="1">
@@ -6870,11 +6868,11 @@
         <v>37752</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>32</v>
       </c>
-      <c r="B447" s="3">
+      <c r="B447">
         <v>29.96</v>
       </c>
       <c r="C447" s="1">
@@ -6884,11 +6882,11 @@
         <v>37752</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>23</v>
       </c>
-      <c r="B448" s="3">
+      <c r="B448">
         <v>16.95</v>
       </c>
       <c r="C448" s="1">
@@ -6898,11 +6896,11 @@
         <v>37752</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>49</v>
       </c>
-      <c r="B449" s="3">
+      <c r="B449">
         <v>15.68</v>
       </c>
       <c r="C449" s="1">
@@ -6912,11 +6910,11 @@
         <v>37752</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>21</v>
       </c>
-      <c r="B450" s="3">
+      <c r="B450">
         <v>13.88</v>
       </c>
       <c r="C450" s="1">
@@ -6926,11 +6924,11 @@
         <v>37752</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>4</v>
       </c>
-      <c r="B451" s="3">
+      <c r="B451">
         <v>12.83</v>
       </c>
       <c r="C451" s="1">
@@ -6940,11 +6938,11 @@
         <v>37752</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>29</v>
       </c>
-      <c r="B452" s="3">
+      <c r="B452">
         <v>12</v>
       </c>
       <c r="C452" s="1">
@@ -6954,11 +6952,11 @@
         <v>37752</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>17</v>
       </c>
-      <c r="B453" s="3">
+      <c r="B453">
         <v>10.5</v>
       </c>
       <c r="C453" s="1">
@@ -6968,11 +6966,11 @@
         <v>37752</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>5</v>
       </c>
-      <c r="B454" s="3">
+      <c r="B454">
         <v>9.08</v>
       </c>
       <c r="C454" s="1">
@@ -6982,11 +6980,11 @@
         <v>37752</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>47</v>
       </c>
-      <c r="B455" s="3">
+      <c r="B455">
         <v>7.25</v>
       </c>
       <c r="C455" s="1">
@@ -6996,11 +6994,11 @@
         <v>37752</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>50</v>
       </c>
-      <c r="B456" s="3">
+      <c r="B456">
         <v>6.75</v>
       </c>
       <c r="C456" s="1">
@@ -7010,11 +7008,11 @@
         <v>37752</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>39</v>
       </c>
-      <c r="B457" s="3">
+      <c r="B457">
         <v>4.5</v>
       </c>
       <c r="C457" s="1">
@@ -7024,11 +7022,11 @@
         <v>37752</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>14</v>
       </c>
-      <c r="B458" s="3">
+      <c r="B458">
         <v>3</v>
       </c>
       <c r="C458" s="1">
@@ -7038,7 +7036,7 @@
         <v>37752</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>22</v>
       </c>
@@ -7052,7 +7050,7 @@
         <v>37752</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>48</v>
       </c>
@@ -7066,7 +7064,7 @@
         <v>37752</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>19</v>
       </c>
@@ -7080,11 +7078,11 @@
         <v>37752</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>25</v>
       </c>
-      <c r="B462" s="3">
+      <c r="B462">
         <v>85.85</v>
       </c>
       <c r="C462" s="1">
@@ -7094,11 +7092,11 @@
         <v>37387</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>14</v>
       </c>
-      <c r="B463" s="3">
+      <c r="B463">
         <v>50.6</v>
       </c>
       <c r="C463" s="1">
@@ -7108,11 +7106,11 @@
         <v>37387</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>19</v>
       </c>
-      <c r="B464" s="3">
+      <c r="B464">
         <v>49.7</v>
       </c>
       <c r="C464" s="1">
@@ -7122,11 +7120,11 @@
         <v>37387</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>39</v>
       </c>
-      <c r="B465" s="3">
+      <c r="B465">
         <v>46.3</v>
       </c>
       <c r="C465" s="1">
@@ -7136,11 +7134,11 @@
         <v>37387</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>47</v>
       </c>
-      <c r="B466" s="3">
+      <c r="B466">
         <v>33.01</v>
       </c>
       <c r="C466" s="1">
@@ -7150,11 +7148,11 @@
         <v>37387</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>4</v>
       </c>
-      <c r="B467" s="3">
+      <c r="B467">
         <v>32.69</v>
       </c>
       <c r="C467" s="1">
@@ -7164,11 +7162,11 @@
         <v>37387</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>30</v>
       </c>
-      <c r="B468" s="3">
+      <c r="B468">
         <v>31.59</v>
       </c>
       <c r="C468" s="1">
@@ -7178,11 +7176,11 @@
         <v>37387</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>20</v>
       </c>
-      <c r="B469" s="3">
+      <c r="B469">
         <v>31.56</v>
       </c>
       <c r="C469" s="1">
@@ -7192,11 +7190,11 @@
         <v>37387</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>32</v>
       </c>
-      <c r="B470" s="3">
+      <c r="B470">
         <v>29.48</v>
       </c>
       <c r="C470" s="1">
@@ -7206,11 +7204,11 @@
         <v>37387</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>17</v>
       </c>
-      <c r="B471" s="3">
+      <c r="B471">
         <v>28.05</v>
       </c>
       <c r="C471" s="1">
@@ -7220,11 +7218,11 @@
         <v>37387</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>5</v>
       </c>
-      <c r="B472" s="3">
+      <c r="B472">
         <v>26.1</v>
       </c>
       <c r="C472" s="1">
@@ -7234,11 +7232,11 @@
         <v>37387</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>42</v>
       </c>
-      <c r="B473" s="3">
+      <c r="B473">
         <v>22.7</v>
       </c>
       <c r="C473" s="1">
@@ -7248,11 +7246,11 @@
         <v>37387</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>22</v>
       </c>
-      <c r="B474" s="3">
+      <c r="B474">
         <v>22.06</v>
       </c>
       <c r="C474" s="1">
@@ -7262,11 +7260,11 @@
         <v>37387</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>16</v>
       </c>
-      <c r="B475" s="3">
+      <c r="B475">
         <v>20.23</v>
       </c>
       <c r="C475" s="1">
@@ -7276,11 +7274,11 @@
         <v>37387</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>29</v>
       </c>
-      <c r="B476" s="3">
+      <c r="B476">
         <v>19.350000000000001</v>
       </c>
       <c r="C476" s="1">
@@ -7290,11 +7288,11 @@
         <v>37387</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>38</v>
       </c>
-      <c r="B477" s="3">
+      <c r="B477">
         <v>19.2</v>
       </c>
       <c r="C477" s="1">
@@ -7304,11 +7302,11 @@
         <v>37387</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>50</v>
       </c>
-      <c r="B478" s="3">
+      <c r="B478">
         <v>13.5</v>
       </c>
       <c r="C478" s="1">
@@ -7318,11 +7316,11 @@
         <v>37387</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>21</v>
       </c>
-      <c r="B479" s="3">
+      <c r="B479">
         <v>10.5</v>
       </c>
       <c r="C479" s="1">
@@ -7332,11 +7330,11 @@
         <v>37387</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>44</v>
       </c>
-      <c r="B480" s="3">
+      <c r="B480">
         <v>4.59</v>
       </c>
       <c r="C480" s="1">
@@ -7346,11 +7344,11 @@
         <v>37387</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>43</v>
       </c>
-      <c r="B481" s="3">
+      <c r="B481">
         <v>3.13</v>
       </c>
       <c r="C481" s="1">
@@ -7360,11 +7358,11 @@
         <v>37387</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>4</v>
       </c>
-      <c r="B482" s="3">
+      <c r="B482">
         <v>56.3</v>
       </c>
       <c r="C482" s="1">
@@ -7374,11 +7372,11 @@
         <v>37030</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>39</v>
       </c>
-      <c r="B483" s="3">
+      <c r="B483">
         <v>53.15</v>
       </c>
       <c r="C483" s="1">
@@ -7388,11 +7386,11 @@
         <v>37030</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>19</v>
       </c>
-      <c r="B484" s="3">
+      <c r="B484">
         <v>52.39</v>
       </c>
       <c r="C484" s="1">
@@ -7402,11 +7400,11 @@
         <v>37030</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>21</v>
       </c>
-      <c r="B485" s="3">
+      <c r="B485">
         <v>34.479999999999997</v>
       </c>
       <c r="C485" s="1">
@@ -7416,11 +7414,11 @@
         <v>37030</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>20</v>
       </c>
-      <c r="B486" s="3">
+      <c r="B486">
         <v>34</v>
       </c>
       <c r="C486" s="1">
@@ -7430,11 +7428,11 @@
         <v>37030</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>42</v>
       </c>
-      <c r="B487" s="3">
+      <c r="B487">
         <v>33.47</v>
       </c>
       <c r="C487" s="1">
@@ -7444,11 +7442,11 @@
         <v>37030</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>30</v>
       </c>
-      <c r="B488" s="3">
+      <c r="B488">
         <v>25.91</v>
       </c>
       <c r="C488" s="1">
@@ -7458,11 +7456,11 @@
         <v>37030</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>17</v>
       </c>
-      <c r="B489" s="3">
+      <c r="B489">
         <v>25.74</v>
       </c>
       <c r="C489" s="1">
@@ -7472,11 +7470,11 @@
         <v>37030</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>5</v>
       </c>
-      <c r="B490" s="3">
+      <c r="B490">
         <v>21.12</v>
       </c>
       <c r="C490" s="1">
@@ -7486,11 +7484,11 @@
         <v>37030</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>50</v>
       </c>
-      <c r="B491" s="3">
+      <c r="B491">
         <v>20.8</v>
       </c>
       <c r="C491" s="1">
@@ -7500,11 +7498,11 @@
         <v>37030</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>18</v>
       </c>
-      <c r="B492" s="3">
+      <c r="B492">
         <v>20.28</v>
       </c>
       <c r="C492" s="1">
@@ -7514,11 +7512,11 @@
         <v>37030</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>57</v>
       </c>
-      <c r="B493" s="3">
+      <c r="B493">
         <v>19</v>
       </c>
       <c r="C493" s="1">
@@ -7528,11 +7526,11 @@
         <v>37030</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>22</v>
       </c>
-      <c r="B494" s="3">
+      <c r="B494">
         <v>18.649999999999999</v>
       </c>
       <c r="C494" s="1">
@@ -7542,11 +7540,11 @@
         <v>37030</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>32</v>
       </c>
-      <c r="B495" s="3">
+      <c r="B495">
         <v>16.87</v>
       </c>
       <c r="C495" s="1">
@@ -7556,11 +7554,11 @@
         <v>37030</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>44</v>
       </c>
-      <c r="B496" s="3">
+      <c r="B496">
         <v>13.33</v>
       </c>
       <c r="C496" s="1">
@@ -7570,11 +7568,11 @@
         <v>37030</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>25</v>
       </c>
-      <c r="B497" s="3">
+      <c r="B497">
         <v>11.7</v>
       </c>
       <c r="C497" s="1">
@@ -7584,11 +7582,11 @@
         <v>37030</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>38</v>
       </c>
-      <c r="B498" s="3">
+      <c r="B498">
         <v>11.7</v>
       </c>
       <c r="C498" s="1">
@@ -7598,11 +7596,11 @@
         <v>37030</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>16</v>
       </c>
-      <c r="B499" s="3">
+      <c r="B499">
         <v>9.9</v>
       </c>
       <c r="C499" s="1">
@@ -7612,11 +7610,11 @@
         <v>37030</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>65</v>
       </c>
-      <c r="B500" s="3">
+      <c r="B500">
         <v>6.61</v>
       </c>
       <c r="C500" s="1">
@@ -7626,7 +7624,7 @@
         <v>37030</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>29</v>
       </c>
@@ -7646,6 +7644,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C8A045C30132D4297A06E3931D4AED5" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eda3533662b0e1fb845eed469d59d362">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a3c9c01b-7fb9-4e0a-9481-6bafe87c04b4" xmlns:ns3="09d2acda-3c59-4788-9ac3-2f06d5091789" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1dea0410cfa3bbb30d92396b550ac63d" ns2:_="" ns3:_="">
     <xsd:import namespace="a3c9c01b-7fb9-4e0a-9481-6bafe87c04b4"/>
@@ -7846,15 +7853,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7867,6 +7865,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F42D955-0233-4E60-8837-719ED43C834B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AF7E409-4FA3-4470-BB36-DB728EB072E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7881,14 +7887,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F42D955-0233-4E60-8837-719ED43C834B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Chen/Spending_data.xlsx
+++ b/Chen/Spending_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IS_CW\SVM_Collab\Chen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF434B9-8F3A-4A36-99B0-3F4891428291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B7D672-B3DB-4F9F-AFE0-2B5A6F438DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{88EC465C-8B1A-4D14-8D59-202C18660018}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="67">
   <si>
     <t>Team</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>Wolves</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Sheffield United</t>
@@ -614,7 +611,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A557E7EF-899B-4FD0-92C0-4E9091D364FE}">
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="88" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -696,7 +695,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>148.85</v>
@@ -710,7 +709,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>144.4</v>
@@ -724,7 +723,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>126.49</v>
@@ -738,7 +737,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>117.15</v>
@@ -766,7 +765,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>105.5</v>
@@ -780,7 +779,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>104.37</v>
@@ -794,7 +793,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>97.9</v>
@@ -808,7 +807,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>91.55</v>
@@ -822,7 +821,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>86.05</v>
@@ -864,7 +863,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>68.2</v>
@@ -878,7 +877,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>50.2</v>
@@ -892,7 +891,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>42</v>
@@ -906,7 +905,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>25</v>
@@ -920,7 +919,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <v>464.1</v>
@@ -934,7 +933,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23">
         <v>272.10000000000002</v>
@@ -948,7 +947,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24">
         <v>259.60000000000002</v>
@@ -976,7 +975,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>202.3</v>
@@ -990,7 +989,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27">
         <v>172</v>
@@ -1004,7 +1003,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>148.1</v>
@@ -1018,7 +1017,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29">
         <v>144.56</v>
@@ -1032,7 +1031,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30">
         <v>127.7</v>
@@ -1046,7 +1045,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31">
         <v>127.29</v>
@@ -1074,7 +1073,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33">
         <v>111.05</v>
@@ -1088,7 +1087,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34">
         <v>109.5</v>
@@ -1116,7 +1115,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36">
         <v>73.17</v>
@@ -1130,7 +1129,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37">
         <v>72.349999999999994</v>
@@ -1158,7 +1157,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>66.95</v>
@@ -1172,7 +1171,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B40">
         <v>40.5</v>
@@ -1186,7 +1185,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>25.9</v>
@@ -1200,7 +1199,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B42">
         <v>630.25</v>
@@ -1214,7 +1213,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B43">
         <v>243.28</v>
@@ -1228,7 +1227,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B44">
         <v>198.35</v>
@@ -1242,7 +1241,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B45">
         <v>196.6</v>
@@ -1270,7 +1269,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B47">
         <v>185.35</v>
@@ -1284,7 +1283,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B48">
         <v>179.9</v>
@@ -1312,7 +1311,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50">
         <v>163.89</v>
@@ -1326,7 +1325,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B51">
         <v>155</v>
@@ -1340,7 +1339,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B52">
         <v>153.11000000000001</v>
@@ -1354,7 +1353,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B53">
         <v>145.80000000000001</v>
@@ -1382,7 +1381,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B55">
         <v>83.1</v>
@@ -1396,7 +1395,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B56">
         <v>83.07</v>
@@ -1410,7 +1409,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B57">
         <v>76.099999999999994</v>
@@ -1424,7 +1423,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B58">
         <v>55.7</v>
@@ -1438,7 +1437,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B59">
         <v>49.25</v>
@@ -1452,7 +1451,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B60">
         <v>49</v>
@@ -1480,7 +1479,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B62">
         <v>167.4</v>
@@ -1508,7 +1507,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B64">
         <v>138.9</v>
@@ -1522,7 +1521,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B65">
         <v>130.5</v>
@@ -1564,7 +1563,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B68">
         <v>95.9</v>
@@ -1578,7 +1577,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B69">
         <v>92</v>
@@ -1620,7 +1619,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B72">
         <v>74.5</v>
@@ -1634,7 +1633,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B73">
         <v>67.599999999999994</v>
@@ -1648,7 +1647,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B74">
         <v>63.55</v>
@@ -1662,7 +1661,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B75">
         <v>63.4</v>
@@ -1676,7 +1675,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B76">
         <v>59.3</v>
@@ -1690,7 +1689,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B77">
         <v>49.4</v>
@@ -1704,7 +1703,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B78">
         <v>43.5</v>
@@ -1718,7 +1717,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B79">
         <v>39.5</v>
@@ -1732,7 +1731,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B80">
         <v>38.200000000000003</v>
@@ -1760,7 +1759,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B82">
         <v>247.2</v>
@@ -1774,7 +1773,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B83">
         <v>173.4</v>
@@ -1788,7 +1787,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B84">
         <v>127.8</v>
@@ -1802,7 +1801,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B85">
         <v>110.5</v>
@@ -1858,7 +1857,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B89">
         <v>84.8</v>
@@ -1872,7 +1871,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B90">
         <v>83.95</v>
@@ -1886,7 +1885,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B91">
         <v>74.37</v>
@@ -1900,7 +1899,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B92">
         <v>62.7</v>
@@ -1914,7 +1913,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B93">
         <v>59.4</v>
@@ -1928,7 +1927,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B94">
         <v>54.7</v>
@@ -1942,7 +1941,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B95">
         <v>50.1</v>
@@ -1956,7 +1955,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B96">
         <v>42.14</v>
@@ -1970,7 +1969,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B97">
         <v>38.75</v>
@@ -1984,7 +1983,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B98">
         <v>37.299999999999997</v>
@@ -1998,7 +1997,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B99">
         <v>37.25</v>
@@ -2026,7 +2025,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B101">
         <v>1.1000000000000001</v>
@@ -2040,7 +2039,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B102">
         <v>247.2</v>
@@ -2054,7 +2053,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B103">
         <v>173.4</v>
@@ -2068,7 +2067,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B104">
         <v>127.8</v>
@@ -2082,7 +2081,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B105">
         <v>110.5</v>
@@ -2138,7 +2137,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B109">
         <v>84.8</v>
@@ -2152,7 +2151,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B110">
         <v>83.95</v>
@@ -2166,7 +2165,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B111">
         <v>74.37</v>
@@ -2180,7 +2179,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B112">
         <v>62.7</v>
@@ -2194,7 +2193,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B113">
         <v>59.4</v>
@@ -2208,7 +2207,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B114">
         <v>54.7</v>
@@ -2222,7 +2221,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B115">
         <v>50.1</v>
@@ -2236,7 +2235,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B116">
         <v>42.14</v>
@@ -2250,7 +2249,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B117">
         <v>38.75</v>
@@ -2264,7 +2263,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B118">
         <v>37.299999999999997</v>
@@ -2278,7 +2277,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B119">
         <v>37.25</v>
@@ -2306,7 +2305,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B121">
         <v>1.1000000000000001</v>
@@ -2320,7 +2319,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B122">
         <v>208.8</v>
@@ -2334,7 +2333,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B123">
         <v>182.2</v>
@@ -2362,7 +2361,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B125">
         <v>116.5</v>
@@ -2376,7 +2375,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B126">
         <v>114.6</v>
@@ -2390,7 +2389,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B127">
         <v>100.9</v>
@@ -2404,7 +2403,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B128">
         <v>99.8</v>
@@ -2418,7 +2417,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B129">
         <v>91.6</v>
@@ -2432,7 +2431,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B130">
         <v>90.62</v>
@@ -2446,7 +2445,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B131">
         <v>82.7</v>
@@ -2474,7 +2473,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B133">
         <v>78.59</v>
@@ -2488,7 +2487,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B134">
         <v>62.25</v>
@@ -2502,7 +2501,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B135">
         <v>59.75</v>
@@ -2516,7 +2515,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B136">
         <v>51.2</v>
@@ -2530,7 +2529,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B137">
         <v>50.7</v>
@@ -2544,7 +2543,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B138">
         <v>33</v>
@@ -2558,7 +2557,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B139">
         <v>30.1</v>
@@ -2586,10 +2585,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>17</v>
-      </c>
-      <c r="B141" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
       </c>
       <c r="C141" s="1">
         <v>43322</v>
@@ -2600,7 +2599,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B142">
         <v>317.5</v>
@@ -2614,7 +2613,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B143">
         <v>260.5</v>
@@ -2628,7 +2627,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B144">
         <v>203.2</v>
@@ -2642,7 +2641,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B145">
         <v>198.4</v>
@@ -2656,7 +2655,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B146">
         <v>173.65</v>
@@ -2684,7 +2683,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B148">
         <v>121</v>
@@ -2698,7 +2697,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B149">
         <v>83.85</v>
@@ -2712,7 +2711,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B150">
         <v>73.400000000000006</v>
@@ -2726,7 +2725,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B151">
         <v>73.39</v>
@@ -2740,7 +2739,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B152">
         <v>70</v>
@@ -2754,7 +2753,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B153">
         <v>61.25</v>
@@ -2768,7 +2767,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B154">
         <v>57.7</v>
@@ -2782,7 +2781,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B155">
         <v>56.8</v>
@@ -2796,7 +2795,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B156">
         <v>56.75</v>
@@ -2824,7 +2823,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B158">
         <v>53.5</v>
@@ -2838,7 +2837,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B159">
         <v>46.5</v>
@@ -2852,7 +2851,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B160">
         <v>35.74</v>
@@ -2866,7 +2865,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B161">
         <v>34.299999999999997</v>
@@ -2880,7 +2879,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B162">
         <v>216.25</v>
@@ -2894,7 +2893,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B163">
         <v>185</v>
@@ -2908,7 +2907,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B164">
         <v>132.80000000000001</v>
@@ -2950,7 +2949,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B167">
         <v>92.1</v>
@@ -2964,7 +2963,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B168">
         <v>86</v>
@@ -2978,7 +2977,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B169">
         <v>83.5</v>
@@ -2992,7 +2991,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B170">
         <v>83.5</v>
@@ -3006,7 +3005,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B171">
         <v>79.900000000000006</v>
@@ -3020,7 +3019,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B172">
         <v>70.45</v>
@@ -3034,7 +3033,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B173">
         <v>68.900000000000006</v>
@@ -3048,7 +3047,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B174">
         <v>58.1</v>
@@ -3062,7 +3061,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B175">
         <v>47.95</v>
@@ -3076,7 +3075,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B176">
         <v>45.6</v>
@@ -3090,7 +3089,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B177">
         <v>42.17</v>
@@ -3104,7 +3103,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B178">
         <v>41.9</v>
@@ -3118,7 +3117,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B179">
         <v>40.69</v>
@@ -3132,7 +3131,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B180">
         <v>40</v>
@@ -3146,7 +3145,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B181">
         <v>37.9</v>
@@ -3160,7 +3159,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B182">
         <v>208.47</v>
@@ -3174,7 +3173,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B183">
         <v>156</v>
@@ -3188,7 +3187,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B184">
         <v>126.5</v>
@@ -3202,7 +3201,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B185">
         <v>107.91</v>
@@ -3216,7 +3215,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B186">
         <v>96.5</v>
@@ -3230,7 +3229,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B187">
         <v>82.8</v>
@@ -3244,7 +3243,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B188">
         <v>71</v>
@@ -3272,7 +3271,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B190">
         <v>66.05</v>
@@ -3286,7 +3285,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B191">
         <v>60.1</v>
@@ -3300,7 +3299,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B192">
         <v>55.11</v>
@@ -3314,7 +3313,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B193">
         <v>53.65</v>
@@ -3328,7 +3327,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B194">
         <v>52.7</v>
@@ -3342,7 +3341,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B195">
         <v>50.5</v>
@@ -3356,7 +3355,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B196">
         <v>49.9</v>
@@ -3370,7 +3369,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B197">
         <v>48.2</v>
@@ -3384,7 +3383,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B198">
         <v>42.9</v>
@@ -3426,7 +3425,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B201">
         <v>21.81</v>
@@ -3440,7 +3439,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B202">
         <v>195.35</v>
@@ -3454,7 +3453,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B203">
         <v>151.43</v>
@@ -3468,7 +3467,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B204">
         <v>137.69999999999999</v>
@@ -3496,7 +3495,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B206">
         <v>102.8</v>
@@ -3510,7 +3509,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B207">
         <v>96</v>
@@ -3524,7 +3523,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B208">
         <v>48.48</v>
@@ -3538,7 +3537,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B209">
         <v>48.22</v>
@@ -3552,7 +3551,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B210">
         <v>45.02</v>
@@ -3566,7 +3565,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B211">
         <v>43.54</v>
@@ -3580,7 +3579,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B212">
         <v>41.53</v>
@@ -3594,7 +3593,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B213">
         <v>40.159999999999997</v>
@@ -3608,7 +3607,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B214">
         <v>35.15</v>
@@ -3636,7 +3635,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B216">
         <v>24.88</v>
@@ -3650,7 +3649,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B217">
         <v>22.86</v>
@@ -3664,7 +3663,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B218">
         <v>22.52</v>
@@ -3692,7 +3691,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B220">
         <v>12.62</v>
@@ -3706,7 +3705,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B221">
         <v>1.8</v>
@@ -3720,7 +3719,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B222">
         <v>130.35</v>
@@ -3734,7 +3733,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B223">
         <v>122.55</v>
@@ -3748,7 +3747,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B224">
         <v>115.5</v>
@@ -3762,7 +3761,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B225">
         <v>77.13</v>
@@ -3776,7 +3775,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B226">
         <v>58.1</v>
@@ -3804,7 +3803,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B228">
         <v>45.82</v>
@@ -3818,7 +3817,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B229">
         <v>39.6</v>
@@ -3832,7 +3831,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B230">
         <v>33.909999999999997</v>
@@ -3860,7 +3859,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B232">
         <v>31.8</v>
@@ -3874,7 +3873,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B233">
         <v>31.1</v>
@@ -3888,7 +3887,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B234">
         <v>30.05</v>
@@ -3902,7 +3901,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B235">
         <v>29.3</v>
@@ -3916,7 +3915,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B236">
         <v>26.61</v>
@@ -3930,7 +3929,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B237">
         <v>24</v>
@@ -3958,7 +3957,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B239">
         <v>15.7</v>
@@ -3972,7 +3971,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B240">
         <v>7</v>
@@ -3986,7 +3985,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B241">
         <v>3.8</v>
@@ -4000,7 +3999,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B242">
         <v>109.7</v>
@@ -4014,7 +4013,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B243">
         <v>76.45</v>
@@ -4028,7 +4027,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B244">
         <v>73.25</v>
@@ -4042,7 +4041,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B245">
         <v>70.599999999999994</v>
@@ -4056,7 +4055,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B246">
         <v>61.95</v>
@@ -4084,7 +4083,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B248">
         <v>50.35</v>
@@ -4098,7 +4097,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B249">
         <v>41.5</v>
@@ -4112,7 +4111,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B250">
         <v>38.299999999999997</v>
@@ -4126,7 +4125,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B251">
         <v>31.97</v>
@@ -4154,7 +4153,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B253">
         <v>23.9</v>
@@ -4168,7 +4167,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B254">
         <v>23.68</v>
@@ -4182,7 +4181,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B255">
         <v>21.65</v>
@@ -4196,7 +4195,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B256">
         <v>20.47</v>
@@ -4210,7 +4209,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B257">
         <v>11.08</v>
@@ -4224,7 +4223,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B258">
         <v>10.82</v>
@@ -4238,7 +4237,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B259">
         <v>10.54</v>
@@ -4252,7 +4251,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B260">
         <v>10</v>
@@ -4266,7 +4265,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B261">
         <v>5</v>
@@ -4280,7 +4279,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B262">
         <v>96.45</v>
@@ -4294,7 +4293,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B263">
         <v>91.05</v>
@@ -4308,7 +4307,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B264">
         <v>69.33</v>
@@ -4336,7 +4335,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B266">
         <v>62.3</v>
@@ -4350,7 +4349,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B267">
         <v>27.92</v>
@@ -4364,7 +4363,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B268">
         <v>27</v>
@@ -4378,7 +4377,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B269">
         <v>26.23</v>
@@ -4392,7 +4391,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B270">
         <v>24.8</v>
@@ -4406,7 +4405,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B271">
         <v>20.55</v>
@@ -4434,7 +4433,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B273">
         <v>18.13</v>
@@ -4448,7 +4447,7 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B274">
         <v>15.6</v>
@@ -4462,7 +4461,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B275">
         <v>15.25</v>
@@ -4476,7 +4475,7 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B276">
         <v>12.85</v>
@@ -4490,7 +4489,7 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B277">
         <v>12.38</v>
@@ -4518,7 +4517,7 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B279">
         <v>9.14</v>
@@ -4532,7 +4531,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B280">
         <v>9</v>
@@ -4546,7 +4545,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B281">
         <v>7.2</v>
@@ -4560,7 +4559,7 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B282">
         <v>183.61</v>
@@ -4574,7 +4573,7 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B283">
         <v>121.5</v>
@@ -4588,7 +4587,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B284">
         <v>97.73</v>
@@ -4616,7 +4615,7 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B286">
         <v>29.3</v>
@@ -4630,7 +4629,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B287">
         <v>29.1</v>
@@ -4644,7 +4643,7 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B288">
         <v>26.6</v>
@@ -4658,7 +4657,7 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B289">
         <v>25.6</v>
@@ -4686,7 +4685,7 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B291">
         <v>21.1</v>
@@ -4714,7 +4713,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B293">
         <v>18.03</v>
@@ -4728,7 +4727,7 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B294">
         <v>13.98</v>
@@ -4742,7 +4741,7 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B295">
         <v>13.83</v>
@@ -4756,7 +4755,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B296">
         <v>11.4</v>
@@ -4770,7 +4769,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B297">
         <v>11.05</v>
@@ -4784,7 +4783,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B298">
         <v>5.73</v>
@@ -4798,7 +4797,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B299">
         <v>5.4</v>
@@ -4812,7 +4811,7 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B300">
         <v>5.05</v>
@@ -4826,7 +4825,7 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B301">
         <v>1.7</v>
@@ -4840,7 +4839,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B302">
         <v>147.30000000000001</v>
@@ -4868,7 +4867,7 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B304">
         <v>43.5</v>
@@ -4882,7 +4881,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B305">
         <v>40.299999999999997</v>
@@ -4896,7 +4895,7 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B306">
         <v>37</v>
@@ -4910,7 +4909,7 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B307">
         <v>30</v>
@@ -4924,7 +4923,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B308">
         <v>27.3</v>
@@ -4938,7 +4937,7 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B309">
         <v>26.05</v>
@@ -4952,7 +4951,7 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B310">
         <v>23.3</v>
@@ -4966,7 +4965,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B311">
         <v>21.65</v>
@@ -4980,7 +4979,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B312">
         <v>20.05</v>
@@ -5008,7 +5007,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B314">
         <v>18.440000000000001</v>
@@ -5022,7 +5021,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B315">
         <v>14.85</v>
@@ -5036,7 +5035,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B316">
         <v>13.54</v>
@@ -5050,7 +5049,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B317">
         <v>13.28</v>
@@ -5078,7 +5077,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B319">
         <v>12</v>
@@ -5092,7 +5091,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B320">
         <v>10.56</v>
@@ -5106,7 +5105,7 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B321">
         <v>7.11</v>
@@ -5120,7 +5119,7 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B322">
         <v>157.35</v>
@@ -5134,7 +5133,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B323">
         <v>143.94999999999999</v>
@@ -5148,7 +5147,7 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B324">
         <v>73.45</v>
@@ -5176,7 +5175,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B326">
         <v>45.25</v>
@@ -5204,7 +5203,7 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B328">
         <v>35.479999999999997</v>
@@ -5218,7 +5217,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B329">
         <v>33.950000000000003</v>
@@ -5232,7 +5231,7 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B330">
         <v>33.11</v>
@@ -5246,7 +5245,7 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B331">
         <v>30.5</v>
@@ -5260,7 +5259,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B332">
         <v>28.2</v>
@@ -5274,7 +5273,7 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B333">
         <v>26.85</v>
@@ -5288,7 +5287,7 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B334">
         <v>25.08</v>
@@ -5302,7 +5301,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B335">
         <v>24.32</v>
@@ -5316,7 +5315,7 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B336">
         <v>24.1</v>
@@ -5330,7 +5329,7 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B337">
         <v>23.7</v>
@@ -5344,7 +5343,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B338">
         <v>17.95</v>
@@ -5358,7 +5357,7 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B339">
         <v>16</v>
@@ -5372,7 +5371,7 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B340">
         <v>12.8</v>
@@ -5386,7 +5385,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B341">
         <v>11.68</v>
@@ -5400,7 +5399,7 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B342">
         <v>106.5</v>
@@ -5414,7 +5413,7 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B343">
         <v>94.15</v>
@@ -5428,7 +5427,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B344">
         <v>90.7</v>
@@ -5442,7 +5441,7 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B345">
         <v>77.95</v>
@@ -5456,7 +5455,7 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B346">
         <v>64.319999999999993</v>
@@ -5470,7 +5469,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B347">
         <v>59</v>
@@ -5484,7 +5483,7 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B348">
         <v>58.64</v>
@@ -5498,7 +5497,7 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B349">
         <v>50.6</v>
@@ -5512,7 +5511,7 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B350">
         <v>50.43</v>
@@ -5526,7 +5525,7 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B351">
         <v>47.15</v>
@@ -5540,7 +5539,7 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B352">
         <v>37.85</v>
@@ -5554,7 +5553,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B353">
         <v>37.549999999999997</v>
@@ -5582,7 +5581,7 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B355">
         <v>29.3</v>
@@ -5610,7 +5609,7 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B357">
         <v>22.68</v>
@@ -5624,7 +5623,7 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B358">
         <v>22.35</v>
@@ -5638,7 +5637,7 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B359">
         <v>17.899999999999999</v>
@@ -5652,7 +5651,7 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B360">
         <v>12.1</v>
@@ -5666,7 +5665,7 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B361">
         <v>6.2</v>
@@ -5680,7 +5679,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B362">
         <v>88.98</v>
@@ -5694,7 +5693,7 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B363">
         <v>69.849999999999994</v>
@@ -5708,7 +5707,7 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B364">
         <v>61</v>
@@ -5722,7 +5721,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B365">
         <v>46</v>
@@ -5736,7 +5735,7 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B366">
         <v>31.88</v>
@@ -5750,7 +5749,7 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B367">
         <v>29.38</v>
@@ -5764,7 +5763,7 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B368">
         <v>27.2</v>
@@ -5792,7 +5791,7 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B370">
         <v>21.65</v>
@@ -5806,7 +5805,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B371">
         <v>18.03</v>
@@ -5820,7 +5819,7 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B372">
         <v>17.98</v>
@@ -5834,7 +5833,7 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B373">
         <v>17.899999999999999</v>
@@ -5848,7 +5847,7 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B374">
         <v>17</v>
@@ -5876,7 +5875,7 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B376">
         <v>13.8</v>
@@ -5890,7 +5889,7 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B377">
         <v>11.3</v>
@@ -5904,7 +5903,7 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B378">
         <v>10.48</v>
@@ -5918,7 +5917,7 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B379">
         <v>9.1</v>
@@ -5932,7 +5931,7 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B380">
         <v>8.83</v>
@@ -5946,7 +5945,7 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B381">
         <v>6.5</v>
@@ -5960,7 +5959,7 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B382">
         <v>91.5</v>
@@ -5974,7 +5973,7 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B383">
         <v>61.75</v>
@@ -6002,7 +6001,7 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B385">
         <v>44.06</v>
@@ -6016,7 +6015,7 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B386">
         <v>36.51</v>
@@ -6030,7 +6029,7 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B387">
         <v>32.729999999999997</v>
@@ -6044,7 +6043,7 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B388">
         <v>31.8</v>
@@ -6058,7 +6057,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B389">
         <v>21.59</v>
@@ -6072,7 +6071,7 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B390">
         <v>18.78</v>
@@ -6100,7 +6099,7 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B392">
         <v>15.77</v>
@@ -6114,7 +6113,7 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B393">
         <v>15.3</v>
@@ -6128,7 +6127,7 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B394">
         <v>13.96</v>
@@ -6142,7 +6141,7 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B395">
         <v>12.48</v>
@@ -6156,7 +6155,7 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B396">
         <v>12.1</v>
@@ -6170,7 +6169,7 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B397">
         <v>9.4</v>
@@ -6184,7 +6183,7 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B398">
         <v>9.1</v>
@@ -6198,7 +6197,7 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B399">
         <v>6.55</v>
@@ -6212,7 +6211,7 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B400">
         <v>6.2</v>
@@ -6226,7 +6225,7 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B401">
         <v>5.93</v>
@@ -6240,7 +6239,7 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B402">
         <v>162.4</v>
@@ -6254,7 +6253,7 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B403">
         <v>61.25</v>
@@ -6268,7 +6267,7 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B404">
         <v>58.4</v>
@@ -6282,7 +6281,7 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B405">
         <v>47.13</v>
@@ -6296,7 +6295,7 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B406">
         <v>29.45</v>
@@ -6310,7 +6309,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B407">
         <v>15.85</v>
@@ -6324,7 +6323,7 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B408">
         <v>15.77</v>
@@ -6338,7 +6337,7 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B409">
         <v>13.95</v>
@@ -6352,7 +6351,7 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B410">
         <v>13.25</v>
@@ -6366,7 +6365,7 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B411">
         <v>12.68</v>
@@ -6394,7 +6393,7 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B413">
         <v>11.88</v>
@@ -6408,7 +6407,7 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B414">
         <v>10.85</v>
@@ -6436,7 +6435,7 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B416">
         <v>8.5299999999999994</v>
@@ -6450,7 +6449,7 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B417">
         <v>7.88</v>
@@ -6464,7 +6463,7 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B418">
         <v>6.75</v>
@@ -6492,7 +6491,7 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B420">
         <v>1.5</v>
@@ -6506,7 +6505,7 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B421">
         <v>1.38</v>
@@ -6520,7 +6519,7 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B422">
         <v>173.7</v>
@@ -6534,7 +6533,7 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B423">
         <v>56.53</v>
@@ -6548,7 +6547,7 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B424">
         <v>29.75</v>
@@ -6576,7 +6575,7 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B426">
         <v>22.34</v>
@@ -6590,7 +6589,7 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B427">
         <v>17.100000000000001</v>
@@ -6604,7 +6603,7 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B428">
         <v>15.65</v>
@@ -6618,7 +6617,7 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B429">
         <v>14.26</v>
@@ -6632,7 +6631,7 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B430">
         <v>11.78</v>
@@ -6646,7 +6645,7 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B431">
         <v>10.199999999999999</v>
@@ -6660,7 +6659,7 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B432">
         <v>9.92</v>
@@ -6688,7 +6687,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B434">
         <v>8.98</v>
@@ -6702,7 +6701,7 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B435">
         <v>8.48</v>
@@ -6730,7 +6729,7 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B437">
         <v>1.5</v>
@@ -6744,7 +6743,7 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B438">
         <v>1.42</v>
@@ -6758,7 +6757,7 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B439">
         <v>0.75</v>
@@ -6772,7 +6771,7 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B440">
         <v>0.1</v>
@@ -6786,10 +6785,10 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>30</v>
-      </c>
-      <c r="B441" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="B441">
+        <v>0</v>
       </c>
       <c r="C441" s="1">
         <v>37849</v>
@@ -6800,7 +6799,7 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B442">
         <v>48.53</v>
@@ -6814,7 +6813,7 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B443">
         <v>44.45</v>
@@ -6828,7 +6827,7 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B444">
         <v>34.549999999999997</v>
@@ -6842,7 +6841,7 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B445">
         <v>34.08</v>
@@ -6856,7 +6855,7 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B446">
         <v>31.5</v>
@@ -6870,7 +6869,7 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B447">
         <v>29.96</v>
@@ -6884,7 +6883,7 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B448">
         <v>16.95</v>
@@ -6898,7 +6897,7 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B449">
         <v>15.68</v>
@@ -6912,7 +6911,7 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B450">
         <v>13.88</v>
@@ -6940,7 +6939,7 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B452">
         <v>12</v>
@@ -6954,7 +6953,7 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B453">
         <v>10.5</v>
@@ -6982,7 +6981,7 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B455">
         <v>7.25</v>
@@ -6996,7 +6995,7 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B456">
         <v>6.75</v>
@@ -7010,7 +7009,7 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B457">
         <v>4.5</v>
@@ -7024,7 +7023,7 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B458">
         <v>3</v>
@@ -7038,7 +7037,7 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B459">
         <v>0.4</v>
@@ -7052,10 +7051,10 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>48</v>
-      </c>
-      <c r="B460" t="s">
-        <v>11</v>
+        <v>47</v>
+      </c>
+      <c r="B460">
+        <v>0</v>
       </c>
       <c r="C460" s="1">
         <v>37485</v>
@@ -7066,10 +7065,10 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>19</v>
-      </c>
-      <c r="B461" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="B461">
+        <v>0</v>
       </c>
       <c r="C461" s="1">
         <v>37485</v>
@@ -7080,7 +7079,7 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B462">
         <v>85.85</v>
@@ -7094,7 +7093,7 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B463">
         <v>50.6</v>
@@ -7108,7 +7107,7 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B464">
         <v>49.7</v>
@@ -7122,7 +7121,7 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B465">
         <v>46.3</v>
@@ -7136,7 +7135,7 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B466">
         <v>33.01</v>
@@ -7164,7 +7163,7 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B468">
         <v>31.59</v>
@@ -7178,7 +7177,7 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B469">
         <v>31.56</v>
@@ -7192,7 +7191,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B470">
         <v>29.48</v>
@@ -7206,7 +7205,7 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B471">
         <v>28.05</v>
@@ -7234,7 +7233,7 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B473">
         <v>22.7</v>
@@ -7248,7 +7247,7 @@
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B474">
         <v>22.06</v>
@@ -7262,7 +7261,7 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B475">
         <v>20.23</v>
@@ -7276,7 +7275,7 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B476">
         <v>19.350000000000001</v>
@@ -7290,7 +7289,7 @@
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B477">
         <v>19.2</v>
@@ -7304,7 +7303,7 @@
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B478">
         <v>13.5</v>
@@ -7318,7 +7317,7 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B479">
         <v>10.5</v>
@@ -7332,7 +7331,7 @@
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B480">
         <v>4.59</v>
@@ -7346,7 +7345,7 @@
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B481">
         <v>3.13</v>
@@ -7374,7 +7373,7 @@
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B483">
         <v>53.15</v>
@@ -7388,7 +7387,7 @@
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B484">
         <v>52.39</v>
@@ -7402,7 +7401,7 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B485">
         <v>34.479999999999997</v>
@@ -7416,7 +7415,7 @@
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B486">
         <v>34</v>
@@ -7430,7 +7429,7 @@
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B487">
         <v>33.47</v>
@@ -7444,7 +7443,7 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B488">
         <v>25.91</v>
@@ -7458,7 +7457,7 @@
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B489">
         <v>25.74</v>
@@ -7486,7 +7485,7 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B491">
         <v>20.8</v>
@@ -7500,7 +7499,7 @@
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B492">
         <v>20.28</v>
@@ -7514,7 +7513,7 @@
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B493">
         <v>19</v>
@@ -7528,7 +7527,7 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B494">
         <v>18.649999999999999</v>
@@ -7542,7 +7541,7 @@
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B495">
         <v>16.87</v>
@@ -7556,7 +7555,7 @@
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B496">
         <v>13.33</v>
@@ -7570,7 +7569,7 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B497">
         <v>11.7</v>
@@ -7584,7 +7583,7 @@
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B498">
         <v>11.7</v>
@@ -7598,7 +7597,7 @@
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B499">
         <v>9.9</v>
@@ -7612,7 +7611,7 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B500">
         <v>6.61</v>
@@ -7626,10 +7625,10 @@
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>29</v>
-      </c>
-      <c r="B501" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="B501">
+        <v>0</v>
       </c>
       <c r="C501" s="1">
         <v>36757</v>
@@ -7644,15 +7643,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C8A045C30132D4297A06E3931D4AED5" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eda3533662b0e1fb845eed469d59d362">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a3c9c01b-7fb9-4e0a-9481-6bafe87c04b4" xmlns:ns3="09d2acda-3c59-4788-9ac3-2f06d5091789" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1dea0410cfa3bbb30d92396b550ac63d" ns2:_="" ns3:_="">
     <xsd:import namespace="a3c9c01b-7fb9-4e0a-9481-6bafe87c04b4"/>
@@ -7853,6 +7843,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7865,14 +7864,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F42D955-0233-4E60-8837-719ED43C834B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AF7E409-4FA3-4470-BB36-DB728EB072E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7887,6 +7878,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F42D955-0233-4E60-8837-719ED43C834B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
